--- a/data_clean/Mowi 11.12.2020.xlsx
+++ b/data_clean/Mowi 11.12.2020.xlsx
@@ -1590,7 +1590,7 @@
         <v>1.0976237669242</v>
       </c>
       <c r="K2">
-        <v>51.25960793225779</v>
+        <v>0.012596079322578</v>
       </c>
       <c r="L2">
         <v>0.0008884665775828888</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1661,7 +1661,7 @@
         <v>1.0976237669242</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.008925948027473426</v>
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1732,7 +1732,7 @@
         <v>1.0976237669242</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.03999176539758704</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.001965188096575</v>
+        <v>0.001965188096574977</v>
       </c>
       <c r="V4">
-        <v>1.001965188096575</v>
+        <v>0.001965188096574977</v>
       </c>
       <c r="W4">
-        <v>1.005613247263542</v>
+        <v>0.005613247263541954</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1803,7 +1803,7 @@
         <v>4.160999999999979</v>
       </c>
       <c r="K5">
-        <v>80.62391009494276</v>
+        <v>0.3062391009494276</v>
       </c>
       <c r="L5">
         <v>0.04132417783984883</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.00063042869151</v>
+        <v>0.0006304286915101986</v>
       </c>
       <c r="V5">
-        <v>1.00063042869151</v>
+        <v>0.0006304286915101986</v>
       </c>
       <c r="W5">
-        <v>0.9986045213508233</v>
+        <v>-0.001395478649176662</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1874,7 +1874,7 @@
         <v>2.258828571428472</v>
       </c>
       <c r="K6">
-        <v>69.31412689923543</v>
+        <v>0.1931412689923543</v>
       </c>
       <c r="L6">
         <v>0.03601812879705785</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000154007700385</v>
+        <v>0.0001540077003849838</v>
       </c>
       <c r="V6">
-        <v>1.000154007700385</v>
+        <v>0.0001540077003849838</v>
       </c>
       <c r="W6">
-        <v>0.9988820570150921</v>
+        <v>-0.00111794298490786</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1945,7 +1945,7 @@
         <v>1.311896069868991</v>
       </c>
       <c r="K7">
-        <v>56.74546044551789</v>
+        <v>0.06745460445517881</v>
       </c>
       <c r="L7">
         <v>0.02823409259165122</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9998226851074153</v>
+        <v>-0.0001773148925846568</v>
       </c>
       <c r="V7">
-        <v>0.9998226851074153</v>
+        <v>-0.0001773148925846568</v>
       </c>
       <c r="W7">
-        <v>0.9983212087297147</v>
+        <v>-0.001678791270285251</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2016,7 +2016,7 @@
         <v>0.8259383301982269</v>
       </c>
       <c r="K8">
-        <v>45.23363777069961</v>
+        <v>-0.04766362229300392</v>
       </c>
       <c r="L8">
         <v>0.01897908552667038</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9995533005753756</v>
+        <v>-0.0004466994246243861</v>
       </c>
       <c r="V8">
-        <v>0.9995533005753756</v>
+        <v>-0.0004466994246243861</v>
       </c>
       <c r="W8">
-        <v>0.9977578475336323</v>
+        <v>-0.002242152466367719</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2087,7 +2087,7 @@
         <v>1.751998234698284</v>
       </c>
       <c r="K9">
-        <v>63.66276738874307</v>
+        <v>0.1366276738874307</v>
       </c>
       <c r="L9">
         <v>0.01585410634029417</v>
@@ -2117,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000330171689278</v>
+        <v>0.0003301716892782913</v>
       </c>
       <c r="V9">
-        <v>1.000330171689278</v>
+        <v>0.0003301716892782913</v>
       </c>
       <c r="W9">
-        <v>1.005337078651685</v>
+        <v>0.005337078651685312</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2158,7 +2158,7 @@
         <v>1.751998234698284</v>
       </c>
       <c r="K10">
-        <v>63.66276738874307</v>
+        <v>0.1366276738874307</v>
       </c>
       <c r="L10">
         <v>0.01504799734487748</v>
@@ -2188,13 +2188,13 @@
         <v>0.06666666666666288</v>
       </c>
       <c r="U10">
-        <v>1.000256715442601</v>
+        <v>0.0002567154426007523</v>
       </c>
       <c r="V10">
-        <v>1.000256715442601</v>
+        <v>0.0002567154426007523</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2229,7 +2229,7 @@
         <v>1.80600376929518</v>
       </c>
       <c r="K11">
-        <v>64.36212912674802</v>
+        <v>0.1436212912674801</v>
       </c>
       <c r="L11">
         <v>0.01526238787284884</v>
@@ -2259,13 +2259,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U11">
-        <v>1.000233317778815</v>
+        <v>0.0002333177788147456</v>
       </c>
       <c r="V11">
-        <v>1.000233317778815</v>
+        <v>0.0002333177788147456</v>
       </c>
       <c r="W11">
-        <v>1.00027940765577</v>
+        <v>0.0002794076557697256</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2300,7 +2300,7 @@
         <v>1.862851700449808</v>
       </c>
       <c r="K12">
-        <v>65.06979387570507</v>
+        <v>0.1506979387570507</v>
       </c>
       <c r="L12">
         <v>0.0159170047467609</v>
@@ -2330,13 +2330,13 @@
         <v>0.08011363636364877</v>
       </c>
       <c r="U12">
-        <v>1.00021629874674</v>
+        <v>0.0002162987467395627</v>
       </c>
       <c r="V12">
-        <v>1.00021629874674</v>
+        <v>0.0002162987467395627</v>
       </c>
       <c r="W12">
-        <v>1.000279329608939</v>
+        <v>0.0002793296089385056</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2371,7 +2371,7 @@
         <v>2.102211410574488</v>
       </c>
       <c r="K13">
-        <v>67.7649306365354</v>
+        <v>0.1776493063653539</v>
       </c>
       <c r="L13">
         <v>0.01721250087095934</v>
@@ -2401,13 +2401,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U13">
-        <v>1.000273495140691</v>
+        <v>0.0002734951406910824</v>
       </c>
       <c r="V13">
-        <v>1.000273495140691</v>
+        <v>0.0002734951406910824</v>
       </c>
       <c r="W13">
-        <v>1.001117006422787</v>
+        <v>0.001117006422786782</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2442,7 +2442,7 @@
         <v>1.679139475673351</v>
       </c>
       <c r="K14">
-        <v>62.67458230226446</v>
+        <v>0.1267458230226446</v>
       </c>
       <c r="L14">
         <v>0.01797975060241741</v>
@@ -2472,13 +2472,13 @@
         <v>0.09278846153847553</v>
       </c>
       <c r="U14">
-        <v>1.000145269852201</v>
+        <v>0.0001452698522013129</v>
       </c>
       <c r="V14">
-        <v>1.000145269852201</v>
+        <v>0.0001452698522013129</v>
       </c>
       <c r="W14">
-        <v>0.998884239888424</v>
+        <v>-0.001115760111575992</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2513,7 +2513,7 @@
         <v>1.274233277944823</v>
       </c>
       <c r="K15">
-        <v>56.02913695363392</v>
+        <v>0.06029136953633918</v>
       </c>
       <c r="L15">
         <v>0.01748830088395262</v>
@@ -2543,13 +2543,13 @@
         <v>0.1357142857143003</v>
       </c>
       <c r="U15">
-        <v>1.00000461107149</v>
+        <v>4.61107148996831E-06</v>
       </c>
       <c r="V15">
-        <v>1.00000461107149</v>
+        <v>4.61107148996831E-06</v>
       </c>
       <c r="W15">
-        <v>0.9983244903658195</v>
+        <v>-0.001675509634180505</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2584,7 +2584,7 @@
         <v>1.485758812509496</v>
       </c>
       <c r="K16">
-        <v>59.77083557071047</v>
+        <v>0.09770835570710468</v>
       </c>
       <c r="L16">
         <v>0.01697422133031431</v>
@@ -2614,13 +2614,13 @@
         <v>0.2433333333333394</v>
       </c>
       <c r="U16">
-        <v>1.000097241925923</v>
+        <v>9.724192592308611E-05</v>
       </c>
       <c r="V16">
-        <v>1.000097241925923</v>
+        <v>9.724192592308611E-05</v>
       </c>
       <c r="W16">
-        <v>1.001398601398601</v>
+        <v>0.001398601398601373</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2655,7 +2655,7 @@
         <v>1.842012344407897</v>
       </c>
       <c r="K17">
-        <v>64.8136644456293</v>
+        <v>0.148136644456293</v>
       </c>
       <c r="L17">
         <v>0.01741957915799585</v>
@@ -2685,13 +2685,13 @@
         <v>0.2593750000000057</v>
       </c>
       <c r="U17">
-        <v>1.00022493333582</v>
+        <v>0.0002249333358197436</v>
       </c>
       <c r="V17">
-        <v>1.000503477725772</v>
+        <v>0.0005034777257724166</v>
       </c>
       <c r="W17">
-        <v>1.002234636871508</v>
+        <v>0.002234636871508489</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2726,7 +2726,7 @@
         <v>1.842012344407897</v>
       </c>
       <c r="K18">
-        <v>64.8136644456293</v>
+        <v>0.148136644456293</v>
       </c>
       <c r="L18">
         <v>0.0182589497663461</v>
@@ -2756,13 +2756,13 @@
         <v>0.2312500000000171</v>
       </c>
       <c r="U18">
-        <v>1.000198425957816</v>
+        <v>0.0001984259578164949</v>
       </c>
       <c r="V18">
-        <v>1.000465948484736</v>
+        <v>0.0004659484847355788</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2797,7 +2797,7 @@
         <v>1.233413917338155</v>
       </c>
       <c r="K19">
-        <v>55.22549616813402</v>
+        <v>0.05225496168134025</v>
       </c>
       <c r="L19">
         <v>0.01797871397740528</v>
@@ -2827,13 +2827,13 @@
         <v>0.1718749999999716</v>
       </c>
       <c r="U19">
-        <v>1.000021015044945</v>
+        <v>2.101504494467221E-05</v>
       </c>
       <c r="V19">
-        <v>0.9999068537044282</v>
+        <v>-9.314629557177767E-05</v>
       </c>
       <c r="W19">
-        <v>0.9972129319955407</v>
+        <v>-0.00278706800445927</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2868,7 +2868,7 @@
         <v>1.302971531886845</v>
       </c>
       <c r="K20">
-        <v>56.57783927616808</v>
+        <v>0.06577839276168074</v>
       </c>
       <c r="L20">
         <v>0.01725269251556498</v>
@@ -2898,13 +2898,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U20">
-        <v>1.000048232602133</v>
+        <v>4.823260213271396E-05</v>
       </c>
       <c r="V20">
-        <v>1.000037261989045</v>
+        <v>3.726198904496769E-05</v>
       </c>
       <c r="W20">
-        <v>1.000558971492454</v>
+        <v>0.0005589714924538747</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2939,7 +2939,7 @@
         <v>1.559236427592557</v>
       </c>
       <c r="K21">
-        <v>60.925845333458</v>
+        <v>0.10925845333458</v>
       </c>
       <c r="L21">
         <v>0.01705091581367872</v>
@@ -2969,13 +2969,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U21">
-        <v>1.000141257485911</v>
+        <v>0.0001412574859109839</v>
       </c>
       <c r="V21">
-        <v>1.000242193904166</v>
+        <v>0.0002421939041656884</v>
       </c>
       <c r="W21">
-        <v>1.00195530726257</v>
+        <v>0.001955307262569761</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3010,7 +3010,7 @@
         <v>1.350989152800417</v>
       </c>
       <c r="K22">
-        <v>57.46471229742448</v>
+        <v>0.07464712297424481</v>
       </c>
       <c r="L22">
         <v>0.0166448741984591</v>
@@ -3040,13 +3040,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U22">
-        <v>1.000074542032389</v>
+        <v>7.454203238865809E-05</v>
       </c>
       <c r="V22">
-        <v>1.000279386839017</v>
+        <v>0.0002793868390174037</v>
       </c>
       <c r="W22">
-        <v>0.9988848620016728</v>
+        <v>-0.001115137998327187</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3081,7 +3081,7 @@
         <v>1.491575694903202</v>
       </c>
       <c r="K23">
-        <v>59.86475538168026</v>
+        <v>0.09864755381680257</v>
       </c>
       <c r="L23">
         <v>0.01652250640671214</v>
@@ -3111,13 +3111,13 @@
         <v>0.1593749999999829</v>
       </c>
       <c r="U23">
-        <v>1.000118580757731</v>
+        <v>0.0001185807577308573</v>
       </c>
       <c r="V23">
-        <v>1.000502755846864</v>
+        <v>0.0005027558468642113</v>
       </c>
       <c r="W23">
-        <v>1.001116382919341</v>
+        <v>0.001116382919341241</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3152,7 +3152,7 @@
         <v>1.565568611799405</v>
       </c>
       <c r="K24">
-        <v>61.02228584334632</v>
+        <v>0.1102228584334632</v>
       </c>
       <c r="L24">
         <v>0.01672428563691201</v>
@@ -3182,13 +3182,13 @@
         <v>0.125</v>
       </c>
       <c r="U24">
-        <v>1.000132559041245</v>
+        <v>0.0001325590412446509</v>
       </c>
       <c r="V24">
-        <v>1.000186112300162</v>
+        <v>0.0001861123001618559</v>
       </c>
       <c r="W24">
-        <v>1.000557568999164</v>
+        <v>0.0005575689991637045</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3223,7 +3223,7 @@
         <v>1.682399533214473</v>
       </c>
       <c r="K25">
-        <v>62.71994579414339</v>
+        <v>0.1271994579414339</v>
       </c>
       <c r="L25">
         <v>0.01735808111978713</v>
@@ -3253,13 +3253,13 @@
         <v>0.1093750000000284</v>
       </c>
       <c r="U25">
-        <v>1.000156426549382</v>
+        <v>0.0001564265493820827</v>
       </c>
       <c r="V25">
-        <v>1.000241900969465</v>
+        <v>0.0002419009694645258</v>
       </c>
       <c r="W25">
-        <v>1.000835887433826</v>
+        <v>0.0008358874338256772</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3294,7 +3294,7 @@
         <v>1.396220967973469</v>
       </c>
       <c r="K26">
-        <v>58.26762166906003</v>
+        <v>0.08267621669060032</v>
       </c>
       <c r="L26">
         <v>0.01760166032925575</v>
@@ -3324,13 +3324,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U26">
-        <v>1.000088010337722</v>
+        <v>8.801033772232181E-05</v>
       </c>
       <c r="V26">
-        <v>1.000130222867136</v>
+        <v>0.0001302228671355987</v>
       </c>
       <c r="W26">
-        <v>0.998608017817372</v>
+        <v>-0.001391982182628038</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3365,7 +3365,7 @@
         <v>1.30290477258451</v>
       </c>
       <c r="K27">
-        <v>56.57658050368634</v>
+        <v>0.06576580503686336</v>
       </c>
       <c r="L27">
         <v>0.01731924046392211</v>
@@ -3395,13 +3395,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U27">
-        <v>1.000059742907786</v>
+        <v>5.974290778620883E-05</v>
       </c>
       <c r="V27">
-        <v>1.000074403377913</v>
+        <v>7.44033779132014E-05</v>
       </c>
       <c r="W27">
-        <v>0.9994424310008364</v>
+        <v>-0.0005575689991635935</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3436,7 +3436,7 @@
         <v>1.30290477258451</v>
       </c>
       <c r="K28">
-        <v>56.57658050368634</v>
+        <v>0.06576580503686336</v>
       </c>
       <c r="L28">
         <v>0.01667800634301736</v>
@@ -3466,13 +3466,13 @@
         <v>0.125</v>
       </c>
       <c r="U28">
-        <v>1.000055314202578</v>
+        <v>5.531420257809394E-05</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3507,7 +3507,7 @@
         <v>1.134825304750793</v>
       </c>
       <c r="K29">
-        <v>53.15775966423941</v>
+        <v>0.03157759664239412</v>
       </c>
       <c r="L29">
         <v>0.0153842324800265</v>
@@ -3537,13 +3537,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U29">
-        <v>1.000011454465912</v>
+        <v>1.145446591155341E-05</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.998884239888424</v>
+        <v>-0.001115760111575992</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3578,7 +3578,7 @@
         <v>1.134825304750793</v>
       </c>
       <c r="K30">
-        <v>53.15775966423942</v>
+        <v>0.03157759664239423</v>
       </c>
       <c r="L30">
         <v>0.01372874530859915</v>
@@ -3608,13 +3608,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U30">
-        <v>1.00001066438059</v>
+        <v>1.06643805903861E-05</v>
       </c>
       <c r="V30">
-        <v>1.000111596763694</v>
+        <v>0.0001115967636939885</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3649,7 +3649,7 @@
         <v>1.170560387123583</v>
       </c>
       <c r="K31">
-        <v>53.92894821391283</v>
+        <v>0.03928948213912831</v>
       </c>
       <c r="L31">
         <v>0.0120178430225854</v>
@@ -3679,13 +3679,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U31">
-        <v>1.000019264482074</v>
+        <v>1.926448207445475E-05</v>
       </c>
       <c r="V31">
-        <v>1.000037194770415</v>
+        <v>3.719477041519426E-05</v>
       </c>
       <c r="W31">
-        <v>1.000279251605697</v>
+        <v>0.0002792516056966399</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3720,7 +3720,7 @@
         <v>0.6979728807992166</v>
       </c>
       <c r="K32">
-        <v>41.10624431590973</v>
+        <v>-0.08893755684090271</v>
       </c>
       <c r="L32">
         <v>0.008478694270590276</v>
@@ -3750,13 +3750,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U32">
-        <v>1.000027932960894</v>
+        <v>2.793296089387276E-05</v>
       </c>
       <c r="V32">
-        <v>0.9995536793558105</v>
+        <v>-0.0004463206441894796</v>
       </c>
       <c r="W32">
-        <v>0.9949748743718593</v>
+        <v>-0.005025125628140725</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3791,7 +3791,7 @@
         <v>0.6979728807992165</v>
       </c>
       <c r="K33">
-        <v>41.10624431590972</v>
+        <v>-0.08893755684090282</v>
       </c>
       <c r="L33">
         <v>0.00404132876872465</v>
@@ -3821,13 +3821,13 @@
         <v>-0.171875</v>
       </c>
       <c r="U33">
-        <v>1.000009310726888</v>
+        <v>9.310726888367427E-06</v>
       </c>
       <c r="V33">
-        <v>0.9995534800647454</v>
+        <v>-0.0004465199352545746</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3862,7 +3862,7 @@
         <v>0.6074006254097208</v>
       </c>
       <c r="K34">
-        <v>37.78775594633706</v>
+        <v>-0.1221224405366294</v>
       </c>
       <c r="L34">
         <v>-0.00128104169201183</v>
@@ -3892,13 +3892,13 @@
         <v>-0.2593750000000057</v>
       </c>
       <c r="U34">
-        <v>0.9997672339950096</v>
+        <v>-0.0002327660049904479</v>
       </c>
       <c r="V34">
-        <v>0.9996277338296883</v>
+        <v>-0.0003722661703117192</v>
       </c>
       <c r="W34">
-        <v>0.9983164983164984</v>
+        <v>-0.00168350168350162</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3933,7 +3933,7 @@
         <v>0.6074006254097208</v>
       </c>
       <c r="K35">
-        <v>37.78775594633706</v>
+        <v>-0.1221224405366294</v>
       </c>
       <c r="L35">
         <v>-0.006787934456209082</v>
@@ -3963,13 +3963,13 @@
         <v>-0.3656249999999659</v>
       </c>
       <c r="U35">
-        <v>0.9998137438419058</v>
+        <v>-0.0001862561580942002</v>
       </c>
       <c r="V35">
-        <v>0.9995903547155756</v>
+        <v>-0.0004096452844244425</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4004,7 +4004,7 @@
         <v>0.5931855638124112</v>
       </c>
       <c r="K36">
-        <v>37.23267253269284</v>
+        <v>-0.1276732746730716</v>
       </c>
       <c r="L36">
         <v>-0.01212955858430608</v>
@@ -4034,13 +4034,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U36">
-        <v>0.9998416527724736</v>
+        <v>-0.0001583472275263897</v>
       </c>
       <c r="V36">
-        <v>0.9994411638693815</v>
+        <v>-0.0005588361306184675</v>
       </c>
       <c r="W36">
-        <v>0.9997189432265317</v>
+        <v>-0.0002810567734683467</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4075,7 +4075,7 @@
         <v>0.6178204128857336</v>
       </c>
       <c r="K37">
-        <v>38.18844217595925</v>
+        <v>-0.1181155782404075</v>
       </c>
       <c r="L37">
         <v>-0.01688203228745186</v>
@@ -4105,13 +4105,13 @@
         <v>-0.5218749999999943</v>
       </c>
       <c r="U37">
-        <v>0.9999068398203871</v>
+        <v>-9.316017961291667E-05</v>
       </c>
       <c r="V37">
-        <v>0.9995340428307827</v>
+        <v>-0.0004659571692172682</v>
       </c>
       <c r="W37">
-        <v>1.000281135788586</v>
+        <v>0.0002811357885859067</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4146,7 +4146,7 @@
         <v>0.6437518329629005</v>
       </c>
       <c r="K38">
-        <v>39.16356593820631</v>
+        <v>-0.1083643406179369</v>
       </c>
       <c r="L38">
         <v>-0.02081060906535878</v>
@@ -4176,13 +4176,13 @@
         <v>-0.5843749999999943</v>
       </c>
       <c r="U38">
-        <v>0.9999906831140758</v>
+        <v>-9.316885924204321E-06</v>
       </c>
       <c r="V38">
-        <v>0.9994778846871039</v>
+        <v>-0.0005221153128961431</v>
       </c>
       <c r="W38">
-        <v>1.000281056773468</v>
+        <v>0.0002810567734681246</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4217,7 +4217,7 @@
         <v>0.5404803038846787</v>
       </c>
       <c r="K39">
-        <v>35.08518106474534</v>
+        <v>-0.1491481893525466</v>
       </c>
       <c r="L39">
         <v>-0.02463034887303806</v>
@@ -4247,13 +4247,13 @@
         <v>-0.6624999999999943</v>
       </c>
       <c r="U39">
-        <v>0.9997484417363113</v>
+        <v>-0.0002515582636887226</v>
       </c>
       <c r="V39">
-        <v>0.9993097014925375</v>
+        <v>-0.0006902985074624945</v>
       </c>
       <c r="W39">
-        <v>0.9980331553807249</v>
+        <v>-0.001966844619275099</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4288,7 +4288,7 @@
         <v>0.6128508313907708</v>
       </c>
       <c r="K40">
-        <v>37.9979858932339</v>
+        <v>-0.120020141067661</v>
       </c>
       <c r="L40">
         <v>-0.02774413419249478</v>
@@ -4318,13 +4318,13 @@
         <v>-0.6125000000000114</v>
       </c>
       <c r="U40">
-        <v>0.9997763363900694</v>
+        <v>-0.0002236636099306466</v>
       </c>
       <c r="V40">
-        <v>0.9993092246513451</v>
+        <v>-0.0006907753486549151</v>
       </c>
       <c r="W40">
-        <v>1.000844594594595</v>
+        <v>0.0008445945945945166</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4359,7 +4359,7 @@
         <v>0.6128508313907708</v>
       </c>
       <c r="K41">
-        <v>37.9979858932339</v>
+        <v>-0.120020141067661</v>
       </c>
       <c r="L41">
         <v>-0.03013143997122118</v>
@@ -4389,13 +4389,13 @@
         <v>-0.5531250000000227</v>
       </c>
       <c r="U41">
-        <v>0.9997669649515286</v>
+        <v>-0.0002330350484713861</v>
       </c>
       <c r="V41">
-        <v>0.9994021596980905</v>
+        <v>-0.000597840301909458</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4430,7 +4430,7 @@
         <v>0.6663101314876019</v>
       </c>
       <c r="K42">
-        <v>39.98716198723176</v>
+        <v>-0.1001283801276824</v>
       </c>
       <c r="L42">
         <v>-0.03161318806291293</v>
@@ -4460,13 +4460,13 @@
         <v>-0.4656249999999886</v>
       </c>
       <c r="U42">
-        <v>0.9997762342081955</v>
+        <v>-0.0002237657918044977</v>
       </c>
       <c r="V42">
-        <v>0.9994765768123526</v>
+        <v>-0.0005234231876474205</v>
       </c>
       <c r="W42">
-        <v>1.00056258790436</v>
+        <v>0.0005625879043600346</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4501,7 +4501,7 @@
         <v>0.6480755702274931</v>
       </c>
       <c r="K43">
-        <v>39.32317072924245</v>
+        <v>-0.1067682927075755</v>
       </c>
       <c r="L43">
         <v>-0.03243959811584517</v>
@@ -4531,13 +4531,13 @@
         <v>-0.3874999999999886</v>
       </c>
       <c r="U43">
-        <v>0.9997295558187463</v>
+        <v>-0.0002704441812536595</v>
       </c>
       <c r="V43">
-        <v>0.9994575992219356</v>
+        <v>-0.0005424007780644446</v>
       </c>
       <c r="W43">
-        <v>0.9997188642114142</v>
+        <v>-0.0002811357885857957</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4572,7 +4572,7 @@
         <v>0.6299293109114151</v>
       </c>
       <c r="K44">
-        <v>38.64764604786293</v>
+        <v>-0.1135235395213707</v>
       </c>
       <c r="L44">
         <v>-0.03280080985623142</v>
@@ -4602,13 +4602,13 @@
         <v>-0.3062499999999773</v>
       </c>
       <c r="U44">
-        <v>0.9997574672114325</v>
+        <v>-0.0002425327885674511</v>
       </c>
       <c r="V44">
-        <v>0.9995134457398434</v>
+        <v>-0.0004865542601566464</v>
       </c>
       <c r="W44">
-        <v>0.999718785151856</v>
+        <v>-0.0002812148481440291</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4643,7 +4643,7 @@
         <v>0.6594032279565623</v>
       </c>
       <c r="K45">
-        <v>39.73737165550598</v>
+        <v>-0.1026262834449402</v>
       </c>
       <c r="L45">
         <v>-0.0326360063662442</v>
@@ -4673,13 +4673,13 @@
         <v>-0.2406249999999943</v>
       </c>
       <c r="U45">
-        <v>0.9998227215048145</v>
+        <v>-0.0001772784951854511</v>
       </c>
       <c r="V45">
-        <v>0.9995319316245715</v>
+        <v>-0.0004680683754284543</v>
       </c>
       <c r="W45">
-        <v>1.00028129395218</v>
+        <v>0.0002812939521801283</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4714,7 +4714,7 @@
         <v>0.5708496708790158</v>
       </c>
       <c r="K46">
-        <v>36.34018464412192</v>
+        <v>-0.1365981535587808</v>
       </c>
       <c r="L46">
         <v>-0.03255506208136557</v>
@@ -4744,13 +4744,13 @@
         <v>-0.1968750000000057</v>
       </c>
       <c r="U46">
-        <v>0.9997293690566179</v>
+        <v>-0.0002706309433820886</v>
       </c>
       <c r="V46">
-        <v>0.9994193234181247</v>
+        <v>-0.0005806765818753279</v>
       </c>
       <c r="W46">
-        <v>0.9985939257592801</v>
+        <v>-0.001406074240719923</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4785,7 +4785,7 @@
         <v>0.5551541784621301</v>
       </c>
       <c r="K47">
-        <v>35.69769391039506</v>
+        <v>-0.1430230608960494</v>
       </c>
       <c r="L47">
         <v>-0.03251407561152481</v>
@@ -4815,13 +4815,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U47">
-        <v>0.9996452841460682</v>
+        <v>-0.0003547158539317641</v>
       </c>
       <c r="V47">
-        <v>0.9997376065973199</v>
+        <v>-0.0002623934026800834</v>
       </c>
       <c r="W47">
-        <v>0.9997183891861446</v>
+        <v>-0.0002816108138553597</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4856,7 +4856,7 @@
         <v>0.5395388086539989</v>
       </c>
       <c r="K48">
-        <v>35.04548281739721</v>
+        <v>-0.1495451718260278</v>
       </c>
       <c r="L48">
         <v>-0.03248409917715698</v>
@@ -4886,13 +4886,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U48">
-        <v>0.9996358203380336</v>
+        <v>-0.0003641796619664461</v>
       </c>
       <c r="V48">
-        <v>0.9997187904238763</v>
+        <v>-0.0002812095761236533</v>
       </c>
       <c r="W48">
-        <v>0.9997183098591549</v>
+        <v>-0.0002816901408451145</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4927,7 +4927,7 @@
         <v>0.5240233126510108</v>
       </c>
       <c r="K49">
-        <v>34.38420582553175</v>
+        <v>-0.1561579417446825</v>
       </c>
       <c r="L49">
         <v>-0.03244704001704087</v>
@@ -4957,13 +4957,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U49">
-        <v>0.9997197597406843</v>
+        <v>-0.0002802402593157227</v>
       </c>
       <c r="V49">
-        <v>0.9998124742152046</v>
+        <v>-0.000187525784795417</v>
       </c>
       <c r="W49">
-        <v>0.9997182304874613</v>
+        <v>-0.0002817695125386654</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4998,7 +4998,7 @@
         <v>0.5240233126510109</v>
       </c>
       <c r="K50">
-        <v>34.38420582553175</v>
+        <v>-0.1561579417446825</v>
       </c>
       <c r="L50">
         <v>-0.0322903831004417</v>
@@ -5028,13 +5028,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U50">
-        <v>0.9997009932630044</v>
+        <v>-0.0002990067369955662</v>
       </c>
       <c r="V50">
-        <v>0.999812439042689</v>
+        <v>-0.0001875609573109838</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5069,7 +5069,7 @@
         <v>0.6514779835375328</v>
       </c>
       <c r="K51">
-        <v>39.44817854259495</v>
+        <v>-0.1055182145740505</v>
       </c>
       <c r="L51">
         <v>-0.03154531575655091</v>
@@ -5099,13 +5099,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U51">
-        <v>0.9996728635654134</v>
+        <v>-0.0003271364345865946</v>
       </c>
       <c r="V51">
-        <v>0.9999062019284882</v>
+        <v>-9.379807151177477E-05</v>
       </c>
       <c r="W51">
-        <v>1.001127395715896</v>
+        <v>0.001127395715896151</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5140,7 +5140,7 @@
         <v>0.7185593892672812</v>
       </c>
       <c r="K52">
-        <v>41.81172869292831</v>
+        <v>-0.08188271307071693</v>
       </c>
       <c r="L52">
         <v>-0.03017195335569823</v>
@@ -5170,13 +5170,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U52">
-        <v>0.9997288553957776</v>
+        <v>-0.0002711446042223953</v>
       </c>
       <c r="V52">
-        <v>0.999924954503668</v>
+        <v>-7.504549633197133E-05</v>
       </c>
       <c r="W52">
-        <v>1.000563063063063</v>
+        <v>0.0005630630630630851</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5211,7 +5211,7 @@
         <v>0.671166944905589</v>
       </c>
       <c r="K53">
-        <v>40.16157374052812</v>
+        <v>-0.09838426259471883</v>
       </c>
       <c r="L53">
         <v>-0.02859985881996878</v>
@@ -5241,13 +5241,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U53">
-        <v>0.9996726677577741</v>
+        <v>-0.0003273322422259195</v>
       </c>
       <c r="V53">
-        <v>0.9998686605249825</v>
+        <v>-0.0001313394750175334</v>
       </c>
       <c r="W53">
-        <v>0.9994372537985369</v>
+        <v>-0.0005627462014631268</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5282,7 +5282,7 @@
         <v>0.8794452763160152</v>
       </c>
       <c r="K54">
-        <v>46.79281101708134</v>
+        <v>-0.03207188982918657</v>
       </c>
       <c r="L54">
         <v>-0.02628983282443033</v>
@@ -5312,13 +5312,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U54">
-        <v>0.999709982224717</v>
+        <v>-0.0002900177752830357</v>
       </c>
       <c r="V54">
-        <v>1.000112591480578</v>
+        <v>0.0001125914805779615</v>
       </c>
       <c r="W54">
-        <v>1.001689189189189</v>
+        <v>0.001689189189189255</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5353,7 +5353,7 @@
         <v>0.9525253926003685</v>
       </c>
       <c r="K55">
-        <v>48.78427682478421</v>
+        <v>-0.01215723175215788</v>
       </c>
       <c r="L55">
         <v>-0.02337917070605305</v>
@@ -5383,13 +5383,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U55">
-        <v>0.9997005399638778</v>
+        <v>-0.0002994600361222455</v>
       </c>
       <c r="V55">
-        <v>1.00009381567097</v>
+        <v>9.381567096977683E-05</v>
       </c>
       <c r="W55">
-        <v>1.000562113546936</v>
+        <v>0.0005621135469364713</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5424,7 +5424,7 @@
         <v>1.221767926279575</v>
       </c>
       <c r="K56">
-        <v>54.99079862609532</v>
+        <v>0.04990798626095316</v>
       </c>
       <c r="L56">
         <v>-0.01948841416366335</v>
@@ -5454,13 +5454,13 @@
         <v>0.03125</v>
       </c>
       <c r="U56">
-        <v>0.9998127814129385</v>
+        <v>-0.0001872185870614995</v>
       </c>
       <c r="V56">
-        <v>1.000225136488996</v>
+        <v>0.0002251364889964691</v>
       </c>
       <c r="W56">
-        <v>1.001966292134831</v>
+        <v>0.001966292134831349</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5495,7 +5495,7 @@
         <v>1.130246030092241</v>
       </c>
       <c r="K57">
-        <v>53.05706543404756</v>
+        <v>0.03057065434047557</v>
       </c>
       <c r="L57">
         <v>-0.01538476468583507</v>
@@ -5525,13 +5525,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U57">
-        <v>0.9998127463555759</v>
+        <v>-0.000187253644424068</v>
       </c>
       <c r="V57">
-        <v>1.000150057209311</v>
+        <v>0.0001500572093111607</v>
       </c>
       <c r="W57">
-        <v>0.999439304737875</v>
+        <v>-0.0005606952621249883</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5566,7 +5566,7 @@
         <v>0.9762824006568429</v>
       </c>
       <c r="K58">
-        <v>49.39994407339573</v>
+        <v>-0.006000559266042704</v>
       </c>
       <c r="L58">
         <v>-0.01176663502014037</v>
@@ -5596,13 +5596,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U58">
-        <v>0.9997752535420978</v>
+        <v>-0.0002247464579021585</v>
       </c>
       <c r="V58">
-        <v>1.000093771684702</v>
+        <v>9.377168470181552E-05</v>
       </c>
       <c r="W58">
-        <v>0.9988779803646565</v>
+        <v>-0.00112201963534353</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5637,7 +5637,7 @@
         <v>0.9762824006568428</v>
       </c>
       <c r="K59">
-        <v>49.39994407339572</v>
+        <v>-0.00600055926604276</v>
       </c>
       <c r="L59">
         <v>-0.00863041475819069</v>
@@ -5667,13 +5667,13 @@
         <v>0.2156249999999886</v>
       </c>
       <c r="U59">
-        <v>0.9998126691831439</v>
+        <v>-0.0001873308168560683</v>
       </c>
       <c r="V59">
-        <v>1.000112515470877</v>
+        <v>0.0001125154708774279</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5708,7 +5708,7 @@
         <v>0.9407824967970794</v>
       </c>
       <c r="K60">
-        <v>48.4743910432867</v>
+        <v>-0.01525608956713298</v>
       </c>
       <c r="L60">
         <v>-0.006056980242017259</v>
@@ -5738,13 +5738,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U60">
-        <v>0.9998032657879206</v>
+        <v>-0.0001967342120794413</v>
       </c>
       <c r="V60">
-        <v>1.000075001875047</v>
+        <v>7.50018750470538E-05</v>
       </c>
       <c r="W60">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5779,7 +5779,7 @@
         <v>1.01733477271075</v>
       </c>
       <c r="K61">
-        <v>50.42964541496148</v>
+        <v>0.00429645414961477</v>
       </c>
       <c r="L61">
         <v>-0.00376183817230614</v>
@@ -5809,13 +5809,13 @@
         <v>0.2812499999999716</v>
       </c>
       <c r="U61">
-        <v>0.9998125972151947</v>
+        <v>-0.000187402784805335</v>
       </c>
       <c r="V61">
-        <v>1.000206239688015</v>
+        <v>0.0002062396880153639</v>
       </c>
       <c r="W61">
-        <v>1.000561797752809</v>
+        <v>0.0005617977528089568</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5850,7 +5850,7 @@
         <v>0.907627953467379</v>
       </c>
       <c r="K62">
-        <v>47.57887678347547</v>
+        <v>-0.02421123216524529</v>
       </c>
       <c r="L62">
         <v>-0.002074923450915308</v>
@@ -5880,13 +5880,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U62">
-        <v>0.9999531405222021</v>
+        <v>-4.685947779792254E-05</v>
       </c>
       <c r="V62">
-        <v>1.000168706768891</v>
+        <v>0.0001687067688906918</v>
       </c>
       <c r="W62">
-        <v>0.9991577765300392</v>
+        <v>-0.0008422234699607678</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5921,7 +5921,7 @@
         <v>1.39951821776997</v>
       </c>
       <c r="K63">
-        <v>58.32496737910306</v>
+        <v>0.08324967379103054</v>
       </c>
       <c r="L63">
         <v>0.0004739419507438298</v>
@@ -5951,13 +5951,13 @@
         <v>0.2687500000000114</v>
       </c>
       <c r="U63">
-        <v>1.000074978677938</v>
+        <v>7.497867793837543E-05</v>
       </c>
       <c r="V63">
-        <v>1.000431066796611</v>
+        <v>0.0004310667966114234</v>
       </c>
       <c r="W63">
-        <v>1.003652711435797</v>
+        <v>0.003652711435796707</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5992,7 +5992,7 @@
         <v>1.678322416160096</v>
       </c>
       <c r="K64">
-        <v>62.66319566433314</v>
+        <v>0.1266319566433315</v>
       </c>
       <c r="L64">
         <v>0.004097123830791174</v>
@@ -6022,13 +6022,13 @@
         <v>0.2499999999999716</v>
       </c>
       <c r="U64">
-        <v>1.000196804273464</v>
+        <v>0.0001968042734641351</v>
       </c>
       <c r="V64">
-        <v>1.000580752730474</v>
+        <v>0.0005807527304744209</v>
       </c>
       <c r="W64">
-        <v>1.001959686450168</v>
+        <v>0.001959686450167863</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6063,7 +6063,7 @@
         <v>1.548480918087946</v>
       </c>
       <c r="K65">
-        <v>60.7609382945558</v>
+        <v>0.107609382945558</v>
       </c>
       <c r="L65">
         <v>0.007920288377192473</v>
@@ -6093,13 +6093,13 @@
         <v>0.234375</v>
       </c>
       <c r="U65">
-        <v>1.000178025973052</v>
+        <v>0.000178025973052387</v>
       </c>
       <c r="V65">
-        <v>1.000542969481371</v>
+        <v>0.0005429694813705588</v>
       </c>
       <c r="W65">
-        <v>0.9994411846884605</v>
+        <v>-0.0005588153115394512</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6134,7 +6134,7 @@
         <v>1.37991903246686</v>
       </c>
       <c r="K66">
-        <v>57.98176381809642</v>
+        <v>0.07981763818096421</v>
       </c>
       <c r="L66">
         <v>0.01128457398058515</v>
@@ -6164,13 +6164,13 @@
         <v>0.2343749999999716</v>
       </c>
       <c r="U66">
-        <v>1.000159258044873</v>
+        <v>0.0001592580448730452</v>
       </c>
       <c r="V66">
-        <v>1.000411684350381</v>
+        <v>0.0004116843503809697</v>
       </c>
       <c r="W66">
-        <v>0.99916130835896</v>
+        <v>-0.0008386916410400014</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6205,7 +6205,7 @@
         <v>1.37991903246686</v>
       </c>
       <c r="K67">
-        <v>57.98176381809642</v>
+        <v>0.07981763818096421</v>
       </c>
       <c r="L67">
         <v>0.01411483381893584</v>
@@ -6235,13 +6235,13 @@
         <v>0.2468749999999886</v>
       </c>
       <c r="U67">
-        <v>1.000149866057211</v>
+        <v>0.0001498660572114563</v>
       </c>
       <c r="V67">
-        <v>1.000374104487383</v>
+        <v>0.0003741044873830646</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6276,7 +6276,7 @@
         <v>1.32658314418674</v>
       </c>
       <c r="K68">
-        <v>57.01851436091483</v>
+        <v>0.07018514360914829</v>
       </c>
       <c r="L68">
         <v>0.01628701665143016</v>
@@ -6306,13 +6306,13 @@
         <v>0.2687500000000114</v>
       </c>
       <c r="U68">
-        <v>1.000131113150649</v>
+        <v>0.0001311131506489538</v>
       </c>
       <c r="V68">
-        <v>1.000392662814832</v>
+        <v>0.0003926628148316347</v>
       </c>
       <c r="W68">
-        <v>0.9997202014549526</v>
+        <v>-0.0002797985450474494</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6347,7 +6347,7 @@
         <v>1.226759855462011</v>
       </c>
       <c r="K69">
-        <v>55.09169982802126</v>
+        <v>0.05091699828021268</v>
       </c>
       <c r="L69">
         <v>0.01765786893067792</v>
@@ -6377,13 +6377,13 @@
         <v>0.265625</v>
       </c>
       <c r="U69">
-        <v>1.00017791594876</v>
+        <v>0.0001779159487602655</v>
       </c>
       <c r="V69">
-        <v>1.000242981570782</v>
+        <v>0.0002429815707822858</v>
       </c>
       <c r="W69">
-        <v>0.9994402462916318</v>
+        <v>-0.0005597537083682491</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6418,7 +6418,7 @@
         <v>1.226759855462011</v>
       </c>
       <c r="K70">
-        <v>55.09169982802126</v>
+        <v>0.05091699828021268</v>
       </c>
       <c r="L70">
         <v>0.01839145472023837</v>
@@ -6448,13 +6448,13 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="U70">
-        <v>1.000149797305521</v>
+        <v>0.0001497973055208934</v>
       </c>
       <c r="V70">
-        <v>1.000205549845838</v>
+        <v>0.0002055498458375382</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6489,7 +6489,7 @@
         <v>1.132347283042509</v>
       </c>
       <c r="K71">
-        <v>53.10332383695192</v>
+        <v>0.03103323836951921</v>
       </c>
       <c r="L71">
         <v>0.0184206935524928</v>
@@ -6519,13 +6519,13 @@
         <v>0.2531249999999829</v>
       </c>
       <c r="U71">
-        <v>1.000131053010943</v>
+        <v>0.0001310530109428498</v>
       </c>
       <c r="V71">
-        <v>1.000037365018869</v>
+        <v>3.736501886941745E-05</v>
       </c>
       <c r="W71">
-        <v>0.9994399327919349</v>
+        <v>-0.0005600672080651181</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6560,7 +6560,7 @@
         <v>1.253864532000305</v>
       </c>
       <c r="K72">
-        <v>55.63176110178637</v>
+        <v>0.0563176110178637</v>
       </c>
       <c r="L72">
         <v>0.01826105388586824</v>
@@ -6590,13 +6590,13 @@
         <v>0.1937500000000227</v>
       </c>
       <c r="U72">
-        <v>1.000140395541038</v>
+        <v>0.000140395541037508</v>
       </c>
       <c r="V72">
-        <v>1.000130772679719</v>
+        <v>0.000130772679718838</v>
       </c>
       <c r="W72">
-        <v>1.00084057158868</v>
+        <v>0.0008405715886803389</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6631,7 +6631,7 @@
         <v>1.033528497398043</v>
       </c>
       <c r="K73">
-        <v>50.82439212041884</v>
+        <v>0.008243921204188376</v>
       </c>
       <c r="L73">
         <v>0.01741956033984896</v>
@@ -6661,13 +6661,13 @@
         <v>0.125</v>
       </c>
       <c r="U73">
-        <v>1.000102942277458</v>
+        <v>0.0001029422774576627</v>
       </c>
       <c r="V73">
-        <v>1.000112076211824</v>
+        <v>0.0001120762118240748</v>
       </c>
       <c r="W73">
-        <v>0.9986002239641657</v>
+        <v>-0.001399776035834299</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6702,7 +6702,7 @@
         <v>1.033528497398043</v>
       </c>
       <c r="K74">
-        <v>50.82439212041884</v>
+        <v>0.008243921204188376</v>
       </c>
       <c r="L74">
         <v>0.01615543276105322</v>
@@ -6732,13 +6732,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U74">
-        <v>1.000112289107021</v>
+        <v>0.0001122891070208798</v>
       </c>
       <c r="V74">
-        <v>1.000112063652154</v>
+        <v>0.0001120636521543261</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6773,7 +6773,7 @@
         <v>1.072470447552641</v>
       </c>
       <c r="K75">
-        <v>51.74840726048038</v>
+        <v>0.01748407260480378</v>
       </c>
       <c r="L75">
         <v>0.01475936283719995</v>
@@ -6803,13 +6803,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U75">
-        <v>1.000112276499593</v>
+        <v>0.0001122764995928893</v>
       </c>
       <c r="V75">
-        <v>1.0001494014604</v>
+        <v>0.0001494014603995453</v>
       </c>
       <c r="W75">
-        <v>1.000280347631063</v>
+        <v>0.0002803476310626607</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6844,7 +6844,7 @@
         <v>0.9912081752312215</v>
       </c>
       <c r="K76">
-        <v>49.77923391240201</v>
+        <v>-0.002207660875979844</v>
       </c>
       <c r="L76">
         <v>0.01311436875166734</v>
@@ -6874,13 +6874,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U76">
-        <v>1.000140329868745</v>
+        <v>0.0001403298687447929</v>
       </c>
       <c r="V76">
-        <v>1.000074689571469</v>
+        <v>7.468957146872235E-05</v>
       </c>
       <c r="W76">
-        <v>0.9994394618834082</v>
+        <v>-0.0005605381165918466</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6915,7 +6915,7 @@
         <v>1.031087704880603</v>
       </c>
       <c r="K77">
-        <v>50.7652969590112</v>
+        <v>0.007652969590111969</v>
       </c>
       <c r="L77">
         <v>0.01147794319909885</v>
@@ -6945,13 +6945,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U77">
-        <v>1.000159018202907</v>
+        <v>0.0001590182029069798</v>
       </c>
       <c r="V77">
-        <v>1.000149367986706</v>
+        <v>0.0001493679867061726</v>
       </c>
       <c r="W77">
-        <v>1.000280426247897</v>
+        <v>0.0002804262478968145</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6986,7 +6986,7 @@
         <v>0.9512257365364529</v>
       </c>
       <c r="K78">
-        <v>48.75016348569375</v>
+        <v>-0.01249836514306246</v>
       </c>
       <c r="L78">
         <v>0.009705001449153159</v>
@@ -7016,13 +7016,13 @@
         <v>-0.1562499999999716</v>
       </c>
       <c r="U78">
-        <v>1.000149640395425</v>
+        <v>0.000149640395424866</v>
       </c>
       <c r="V78">
-        <v>0.9998693225306625</v>
+        <v>-0.0001306774693374813</v>
       </c>
       <c r="W78">
-        <v>0.999439304737875</v>
+        <v>-0.0005606952621249883</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7057,7 +7057,7 @@
         <v>0.951225736536453</v>
       </c>
       <c r="K79">
-        <v>48.75016348569376</v>
+        <v>-0.01249836514306241</v>
       </c>
       <c r="L79">
         <v>0.007927100720579698</v>
@@ -7087,13 +7087,13 @@
         <v>-0.1593750000000114</v>
       </c>
       <c r="U79">
-        <v>1.000158969131935</v>
+        <v>0.0001589691319348052</v>
       </c>
       <c r="V79">
-        <v>0.9997386109036596</v>
+        <v>-0.0002613890963404364</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7128,7 +7128,7 @@
         <v>1.079958309718056</v>
       </c>
       <c r="K80">
-        <v>51.92211327853236</v>
+        <v>0.01922113278532367</v>
       </c>
       <c r="L80">
         <v>0.006537009729489021</v>
@@ -7158,13 +7158,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U80">
-        <v>1.000186992782079</v>
+        <v>0.0001869927820790096</v>
       </c>
       <c r="V80">
-        <v>0.9998319202181302</v>
+        <v>-0.0001680797818698343</v>
       </c>
       <c r="W80">
-        <v>1.000841514726508</v>
+        <v>0.0008415147265077305</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7199,7 +7199,7 @@
         <v>1.079958309718056</v>
       </c>
       <c r="K81">
-        <v>51.92211327853236</v>
+        <v>0.01922113278532367</v>
       </c>
       <c r="L81">
         <v>0.005446598405553545</v>
@@ -7229,13 +7229,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U81">
-        <v>1.000149566257852</v>
+        <v>0.0001495662578521184</v>
       </c>
       <c r="V81">
-        <v>0.9998879279750451</v>
+        <v>-0.0001120720249548901</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7270,7 +7270,7 @@
         <v>1.270144936763804</v>
       </c>
       <c r="K82">
-        <v>55.94994910652947</v>
+        <v>0.05949949106529473</v>
       </c>
       <c r="L82">
         <v>0.004995754484802141</v>
@@ -7300,13 +7300,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U82">
-        <v>1.000168236877524</v>
+        <v>0.0001682368775235421</v>
       </c>
       <c r="V82">
-        <v>0.9999626384711664</v>
+        <v>-3.736152883360155E-05</v>
       </c>
       <c r="W82">
-        <v>1.001121076233184</v>
+        <v>0.001121076233183693</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7341,7 +7341,7 @@
         <v>1.570439611046592</v>
       </c>
       <c r="K83">
-        <v>61.09614885708849</v>
+        <v>0.1109614885708848</v>
       </c>
       <c r="L83">
         <v>0.00555538229606387</v>
@@ -7371,13 +7371,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U83">
-        <v>1.000242967946921</v>
+        <v>0.0002429679469209134</v>
       </c>
       <c r="V83">
-        <v>1.000093407311924</v>
+        <v>9.340731192430951E-05</v>
       </c>
       <c r="W83">
-        <v>1.001679731243001</v>
+        <v>0.001679731243001248</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7412,7 +7412,7 @@
         <v>1.243010328761113</v>
       </c>
       <c r="K84">
-        <v>55.41705772918433</v>
+        <v>0.05417057729184327</v>
       </c>
       <c r="L84">
         <v>0.006160677996506506</v>
@@ -7442,13 +7442,13 @@
         <v>0.015625</v>
       </c>
       <c r="U84">
-        <v>1.00014013976606</v>
+        <v>0.0001401397660600878</v>
       </c>
       <c r="V84">
-        <v>1.000037359435125</v>
+        <v>3.735943512528372E-05</v>
       </c>
       <c r="W84">
-        <v>0.9986025712688653</v>
+        <v>-0.001397428731134687</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7483,7 +7483,7 @@
         <v>1.330797824690627</v>
       </c>
       <c r="K85">
-        <v>57.09623591515352</v>
+        <v>0.07096235915153526</v>
       </c>
       <c r="L85">
         <v>0.00693672451306075</v>
@@ -7513,13 +7513,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U85">
-        <v>1.000140120129658</v>
+        <v>0.0001401201296578058</v>
       </c>
       <c r="V85">
-        <v>1.0000747160789</v>
+        <v>7.47160789003054E-05</v>
       </c>
       <c r="W85">
-        <v>1.000559753708368</v>
+        <v>0.0005597537083683601</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7554,7 +7554,7 @@
         <v>1.168789734122132</v>
       </c>
       <c r="K86">
-        <v>53.89133468004112</v>
+        <v>0.03891334680041114</v>
       </c>
       <c r="L86">
         <v>0.007435170216853239</v>
@@ -7584,13 +7584,13 @@
         <v>0.09375</v>
       </c>
       <c r="U86">
-        <v>1.000046700166253</v>
+        <v>4.670016625274442E-05</v>
       </c>
       <c r="V86">
-        <v>1.000056032872618</v>
+        <v>5.603287261846113E-05</v>
       </c>
       <c r="W86">
-        <v>0.9991608391608391</v>
+        <v>-0.0008391608391609129</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7625,7 +7625,7 @@
         <v>1.168789734122132</v>
       </c>
       <c r="K87">
-        <v>53.89133468004112</v>
+        <v>0.03891334680041114</v>
       </c>
       <c r="L87">
         <v>0.0077065733565885</v>
@@ -7655,13 +7655,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U87">
-        <v>1.000065377179628</v>
+        <v>6.537717962840084E-05</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7696,7 +7696,7 @@
         <v>1.072356783595555</v>
       </c>
       <c r="K88">
-        <v>51.74576077267002</v>
+        <v>0.01745760772670024</v>
       </c>
       <c r="L88">
         <v>0.007590939366500194</v>
@@ -7726,13 +7726,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U88">
-        <v>1.000084050878799</v>
+        <v>8.405087879870266E-05</v>
       </c>
       <c r="V88">
-        <v>1.000056029733112</v>
+        <v>5.602973311180648E-05</v>
       </c>
       <c r="W88">
-        <v>0.9994400895856663</v>
+        <v>-0.0005599104143336753</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7767,7 +7767,7 @@
         <v>1.027728137426524</v>
       </c>
       <c r="K89">
-        <v>50.683724235876</v>
+        <v>0.006837242358760043</v>
       </c>
       <c r="L89">
         <v>0.007118551725662354</v>
@@ -7797,13 +7797,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U89">
-        <v>1.000074705613193</v>
+        <v>7.470561319289359E-05</v>
       </c>
       <c r="V89">
-        <v>1.000037351062638</v>
+        <v>3.735106263769161E-05</v>
       </c>
       <c r="W89">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7838,7 +7838,7 @@
         <v>0.9845952492237566</v>
       </c>
       <c r="K90">
-        <v>49.61189187613271</v>
+        <v>-0.003881081238672923</v>
       </c>
       <c r="L90">
         <v>0.006332237788956067</v>
@@ -7868,13 +7868,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U90">
-        <v>1.000074700032681</v>
+        <v>7.470003268128522E-05</v>
       </c>
       <c r="V90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>0.99971980947044</v>
+        <v>-0.0002801905295599649</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7909,7 +7909,7 @@
         <v>0.9429380700960339</v>
       </c>
       <c r="K91">
-        <v>48.53155561718069</v>
+        <v>-0.01468444382819306</v>
       </c>
       <c r="L91">
         <v>0.005280823275186695</v>
@@ -7939,13 +7939,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U91">
-        <v>1.000046684033127</v>
+        <v>4.668403312702019E-05</v>
       </c>
       <c r="V91">
-        <v>1.000018674833794</v>
+        <v>1.867483379380808E-05</v>
       </c>
       <c r="W91">
-        <v>0.999719730941704</v>
+        <v>-0.0002802690582960343</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7980,7 +7980,7 @@
         <v>0.9874737940641097</v>
       </c>
       <c r="K92">
-        <v>49.68487116727522</v>
+        <v>-0.003151288327247814</v>
       </c>
       <c r="L92">
         <v>0.004218668574472388</v>
@@ -8010,13 +8010,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U92">
-        <v>1.000084027336894</v>
+        <v>8.402733689361064E-05</v>
       </c>
       <c r="V92">
-        <v>1.000018674485051</v>
+        <v>1.867448505121772E-05</v>
       </c>
       <c r="W92">
-        <v>1.000280347631063</v>
+        <v>0.0002803476310626607</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8051,7 +8051,7 @@
         <v>1.081233212944243</v>
       </c>
       <c r="K93">
-        <v>51.95156440035197</v>
+        <v>0.01951564400351968</v>
       </c>
       <c r="L93">
         <v>0.003406400216558091</v>
@@ -8081,13 +8081,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U93">
-        <v>0.9999813288273571</v>
+        <v>-1.86711726428701E-05</v>
       </c>
       <c r="V93">
-        <v>1.000093370681606</v>
+        <v>9.337068160597539E-05</v>
       </c>
       <c r="W93">
-        <v>1.000560538116592</v>
+        <v>0.0005605381165918466</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8122,7 +8122,7 @@
         <v>0.984107576628243</v>
       </c>
       <c r="K94">
-        <v>49.59950701365789</v>
+        <v>-0.004004929863421103</v>
       </c>
       <c r="L94">
         <v>0.002580814353138555</v>
@@ -8152,13 +8152,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U94">
-        <v>0.9998973066330579</v>
+        <v>-0.0001026933669421304</v>
       </c>
       <c r="V94">
-        <v>1.000056017178601</v>
+        <v>5.601717860148625E-05</v>
       </c>
       <c r="W94">
-        <v>0.9994397759103641</v>
+        <v>-0.0005602240896358524</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8193,7 +8193,7 @@
         <v>0.7959517594666367</v>
       </c>
       <c r="K95">
-        <v>44.31921710987488</v>
+        <v>-0.05680782890125113</v>
       </c>
       <c r="L95">
         <v>0.001280280174616769</v>
@@ -8223,13 +8223,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U95">
-        <v>0.9998692859276964</v>
+        <v>-0.0001307140723035838</v>
       </c>
       <c r="V95">
-        <v>0.9999066432652449</v>
+        <v>-9.3356734755079E-05</v>
       </c>
       <c r="W95">
-        <v>0.9985986547085202</v>
+        <v>-0.001401345291479839</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8264,7 +8264,7 @@
         <v>0.7651532368258472</v>
       </c>
       <c r="K96">
-        <v>43.34769474188933</v>
+        <v>-0.06652305258110663</v>
       </c>
       <c r="L96">
         <v>-0.0003317738369207152</v>
@@ -8294,13 +8294,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U96">
-        <v>0.999887944719395</v>
+        <v>-0.0001120552806049835</v>
       </c>
       <c r="V96">
-        <v>0.9998879614587423</v>
+        <v>-0.0001120385412577418</v>
       </c>
       <c r="W96">
-        <v>0.9997193376368229</v>
+        <v>-0.0002806623631771421</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8335,7 +8335,7 @@
         <v>0.6356928592017667</v>
       </c>
       <c r="K97">
-        <v>38.86382798736376</v>
+        <v>-0.1113617201263624</v>
       </c>
       <c r="L97">
         <v>-0.002538748001675025</v>
@@ -8365,13 +8365,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U97">
-        <v>0.9998412372289357</v>
+        <v>-0.0001587627710643025</v>
       </c>
       <c r="V97">
-        <v>0.9997198722617512</v>
+        <v>-0.0002801277382488143</v>
       </c>
       <c r="W97">
-        <v>0.9985962942167321</v>
+        <v>-0.001403705783267872</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8406,7 +8406,7 @@
         <v>0.5743208070524896</v>
       </c>
       <c r="K98">
-        <v>36.48054478348396</v>
+        <v>-0.1351945521651604</v>
       </c>
       <c r="L98">
         <v>-0.005262455749205214</v>
@@ -8436,13 +8436,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U98">
-        <v>0.9998225310804123</v>
+        <v>-0.0001774689195876977</v>
       </c>
       <c r="V98">
-        <v>0.9995516700291416</v>
+        <v>-0.0004483299708584187</v>
       </c>
       <c r="W98">
-        <v>0.9991565926342423</v>
+        <v>-0.0008434073657577201</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8477,7 +8477,7 @@
         <v>0.5555031739295574</v>
       </c>
       <c r="K99">
-        <v>35.71212089051731</v>
+        <v>-0.1428787910948269</v>
       </c>
       <c r="L99">
         <v>-0.008208809105844754</v>
@@ -8507,13 +8507,13 @@
         <v>-0.2218750000000114</v>
       </c>
       <c r="U99">
-        <v>0.9998318417069935</v>
+        <v>-0.0001681582930065373</v>
       </c>
       <c r="V99">
-        <v>0.9996262241160201</v>
+        <v>-0.0003737758839799099</v>
       </c>
       <c r="W99">
-        <v>0.9997186268992685</v>
+        <v>-0.0002813731007315079</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8548,7 +8548,7 @@
         <v>0.5555031739295574</v>
       </c>
       <c r="K100">
-        <v>35.71212089051731</v>
+        <v>-0.1428787910948269</v>
       </c>
       <c r="L100">
         <v>-0.01107283877755356</v>
@@ -8578,13 +8578,13 @@
         <v>-0.2531250000000114</v>
       </c>
       <c r="U100">
-        <v>0.999831813425026</v>
+        <v>-0.0001681865749739719</v>
       </c>
       <c r="V100">
-        <v>0.9995886927909062</v>
+        <v>-0.0004113072090937697</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8619,7 +8619,7 @@
         <v>0.628112638051583</v>
       </c>
       <c r="K101">
-        <v>38.57918815759986</v>
+        <v>-0.1142081184240014</v>
       </c>
       <c r="L101">
         <v>-0.01346057130769377</v>
@@ -8649,13 +8649,13 @@
         <v>-0.2843750000000114</v>
       </c>
       <c r="U101">
-        <v>0.9998691662149787</v>
+        <v>-0.0001308337850213226</v>
       </c>
       <c r="V101">
-        <v>0.9996820409232037</v>
+        <v>-0.0003179590767963258</v>
       </c>
       <c r="W101">
-        <v>1.000562904587672</v>
+        <v>0.0005629045876722749</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8690,7 +8690,7 @@
         <v>0.8574056826474753</v>
       </c>
       <c r="K102">
-        <v>46.16146546000451</v>
+        <v>-0.03838534539995486</v>
       </c>
       <c r="L102">
         <v>-0.01474661269948728</v>
@@ -8720,13 +8720,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U102">
-        <v>0.9998971885748468</v>
+        <v>-0.0001028114251532264</v>
       </c>
       <c r="V102">
-        <v>0.9997941963366945</v>
+        <v>-0.0002058036633054705</v>
       </c>
       <c r="W102">
-        <v>1.00168776371308</v>
+        <v>0.001687763713080326</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8761,7 +8761,7 @@
         <v>0.7385650938713246</v>
       </c>
       <c r="K103">
-        <v>42.48130233805256</v>
+        <v>-0.07518697661947443</v>
       </c>
       <c r="L103">
         <v>-0.01563787399830454</v>
@@ -8791,13 +8791,13 @@
         <v>-0.2843750000000114</v>
       </c>
       <c r="U103">
-        <v>0.9999065254577915</v>
+        <v>-9.347454220853813E-05</v>
       </c>
       <c r="V103">
-        <v>0.9997567274224337</v>
+        <v>-0.0002432725775662892</v>
       </c>
       <c r="W103">
-        <v>0.9988767200224655</v>
+        <v>-0.001123279977534475</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8832,7 +8832,7 @@
         <v>0.9209399007133403</v>
       </c>
       <c r="K104">
-        <v>47.94215063008216</v>
+        <v>-0.02057849369917841</v>
       </c>
       <c r="L104">
         <v>-0.01566593245194469</v>
@@ -8862,13 +8862,13 @@
         <v>-0.2593750000000057</v>
       </c>
       <c r="U104">
-        <v>0.9999532583597422</v>
+        <v>-4.674164025775251E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998689751988769</v>
+        <v>-0.0001310248011231474</v>
       </c>
       <c r="W104">
-        <v>1.00140567894293</v>
+        <v>0.001405678942929534</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8903,7 +8903,7 @@
         <v>0.8552646480846132</v>
       </c>
       <c r="K105">
-        <v>46.09933407439169</v>
+        <v>-0.0390066592560831</v>
       </c>
       <c r="L105">
         <v>-0.01531625113518925</v>
@@ -8933,13 +8933,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U105">
-        <v>0.999925209879775</v>
+        <v>-7.479012022504339E-05</v>
       </c>
       <c r="V105">
-        <v>0.9998502377475758</v>
+        <v>-0.0001497622524242459</v>
       </c>
       <c r="W105">
-        <v>0.9994385176866929</v>
+        <v>-0.0005614823133071045</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8974,7 +8974,7 @@
         <v>0.8552646480846132</v>
       </c>
       <c r="K106">
-        <v>46.09933407439169</v>
+        <v>-0.0390066592560831</v>
       </c>
       <c r="L106">
         <v>-0.01470418271825535</v>
@@ -9004,13 +9004,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U106">
-        <v>0.9999439032143457</v>
+        <v>-5.609678565432485E-05</v>
       </c>
       <c r="V106">
-        <v>0.9998689384010486</v>
+        <v>-0.0001310615989513764</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9045,7 +9045,7 @@
         <v>0.9737908889942984</v>
       </c>
       <c r="K107">
-        <v>49.33607174012603</v>
+        <v>-0.006639282598739693</v>
       </c>
       <c r="L107">
         <v>-0.01361214777448488</v>
@@ -9075,13 +9075,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U107">
-        <v>0.9999626000448802</v>
+        <v>-3.739995511975458E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999063723011815</v>
+        <v>-9.362769881848809E-05</v>
       </c>
       <c r="W107">
-        <v>1.000842696629213</v>
+        <v>0.0008426966292134352</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9116,7 +9116,7 @@
         <v>1.015379043699435</v>
       </c>
       <c r="K108">
-        <v>50.38154221528486</v>
+        <v>0.00381542215284858</v>
       </c>
       <c r="L108">
         <v>-0.01214701519688276</v>
@@ -9146,13 +9146,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U108">
-        <v>0.9999906496615176</v>
+        <v>-9.350338482372322E-06</v>
       </c>
       <c r="V108">
-        <v>0.9998876362410577</v>
+        <v>-0.0001123637589423021</v>
       </c>
       <c r="W108">
-        <v>1.000280662363177</v>
+        <v>0.0002806623631770311</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9187,7 +9187,7 @@
         <v>1.015379043699435</v>
       </c>
       <c r="K109">
-        <v>50.38154221528486</v>
+        <v>0.00381542215284858</v>
       </c>
       <c r="L109">
         <v>-0.01050480065030943</v>
@@ -9217,13 +9217,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U109">
-        <v>0.9999906495740881</v>
+        <v>-9.3504259118804E-06</v>
       </c>
       <c r="V109">
-        <v>0.9999250824093496</v>
+        <v>-7.491759065036963E-05</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9258,7 +9258,7 @@
         <v>0.9706504444226922</v>
       </c>
       <c r="K110">
-        <v>49.2553332921023</v>
+        <v>-0.00744666707897701</v>
       </c>
       <c r="L110">
         <v>-0.008923757803238834</v>
@@ -9288,13 +9288,13 @@
         <v>0.109375</v>
       </c>
       <c r="U110">
-        <v>0.9999532474332842</v>
+        <v>-4.675256671582417E-05</v>
       </c>
       <c r="V110">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W110">
-        <v>0.9997194163860832</v>
+        <v>-0.0002805836139168072</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9329,7 +9329,7 @@
         <v>1.063389675890882</v>
       </c>
       <c r="K111">
-        <v>51.53605682512474</v>
+        <v>0.01536056825124743</v>
       </c>
       <c r="L111">
         <v>-0.007243622259831717</v>
@@ -9359,13 +9359,13 @@
         <v>0.1531249999999886</v>
       </c>
       <c r="U111">
-        <v>0.9999719471484276</v>
+        <v>-2.805285157236881E-05</v>
       </c>
       <c r="V111">
-        <v>1.000056192402787</v>
+        <v>5.619240278686988E-05</v>
       </c>
       <c r="W111">
-        <v>1.000561324726354</v>
+        <v>0.0005613247263540622</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9400,7 +9400,7 @@
         <v>1.209820041366986</v>
       </c>
       <c r="K112">
-        <v>54.74744634040861</v>
+        <v>0.04747446340408612</v>
       </c>
       <c r="L112">
         <v>-0.005277496862465452</v>
@@ -9430,13 +9430,13 @@
         <v>0.171875</v>
       </c>
       <c r="U112">
-        <v>0.9999625951485906</v>
+        <v>-3.740485140935057E-05</v>
       </c>
       <c r="V112">
-        <v>1.000206027233054</v>
+        <v>0.0002060272330544066</v>
       </c>
       <c r="W112">
-        <v>1.000841514726508</v>
+        <v>0.0008415147265077305</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9471,7 +9471,7 @@
         <v>1.312578192578278</v>
       </c>
       <c r="K113">
-        <v>56.75821889139641</v>
+        <v>0.06758218891396406</v>
       </c>
       <c r="L113">
         <v>-0.003039706495072601</v>
@@ -9501,13 +9501,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U113">
-        <v>0.9999251874988311</v>
+        <v>-7.481250116891935E-05</v>
       </c>
       <c r="V113">
-        <v>1.000299614246657</v>
+        <v>0.0002996142466573648</v>
       </c>
       <c r="W113">
-        <v>1.000560538116592</v>
+        <v>0.0005605381165918466</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9542,7 +9542,7 @@
         <v>1.312578192578278</v>
       </c>
       <c r="K114">
-        <v>56.75821889139641</v>
+        <v>0.06758218891396406</v>
       </c>
       <c r="L114">
         <v>-0.0007688397439255059</v>
@@ -9572,13 +9572,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U114">
-        <v>0.9999719432130632</v>
+        <v>-2.805678693684754E-05</v>
       </c>
       <c r="V114">
-        <v>1.000318244786402</v>
+        <v>0.0003182447864016336</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9613,7 +9613,7 @@
         <v>1.121105511652688</v>
       </c>
       <c r="K115">
-        <v>52.85477339499077</v>
+        <v>0.02854773394990773</v>
       </c>
       <c r="L115">
         <v>0.001073498689236527</v>
@@ -9643,13 +9643,13 @@
         <v>0.1875</v>
       </c>
       <c r="U115">
-        <v>0.9999251798022877</v>
+        <v>-7.482019771232196E-05</v>
       </c>
       <c r="V115">
-        <v>1.00026200056143</v>
+        <v>0.000262000561429776</v>
       </c>
       <c r="W115">
-        <v>0.9991596638655462</v>
+        <v>-0.0008403361344537785</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9684,7 +9684,7 @@
         <v>1.172289812287793</v>
       </c>
       <c r="K116">
-        <v>53.96562676198214</v>
+        <v>0.03965626761982144</v>
       </c>
       <c r="L116">
         <v>0.002637029805285485</v>
@@ -9714,13 +9714,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U116">
-        <v>0.9999625871019034</v>
+        <v>-3.741289809655601E-05</v>
       </c>
       <c r="V116">
-        <v>1.000243222511179</v>
+        <v>0.0002432225111788089</v>
       </c>
       <c r="W116">
-        <v>1.000280347631063</v>
+        <v>0.0002803476310626607</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9755,7 +9755,7 @@
         <v>1.058255938393854</v>
       </c>
       <c r="K117">
-        <v>51.41517722133511</v>
+        <v>0.01415177221335118</v>
       </c>
       <c r="L117">
         <v>0.003717945186594865</v>
@@ -9785,13 +9785,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U117">
-        <v>0.9999438785531891</v>
+        <v>-5.612144681088616E-05</v>
       </c>
       <c r="V117">
-        <v>1.000093524372452</v>
+        <v>9.352437245180312E-05</v>
       </c>
       <c r="W117">
-        <v>0.9994394618834082</v>
+        <v>-0.0005605381165918466</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9826,7 +9826,7 @@
         <v>1.006715055921221</v>
       </c>
       <c r="K118">
-        <v>50.16731463446709</v>
+        <v>0.001673146344670862</v>
       </c>
       <c r="L118">
         <v>0.004321829120290872</v>
@@ -9856,13 +9856,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U118">
-        <v>0.9999532295028295</v>
+        <v>-4.677049717050075E-05</v>
       </c>
       <c r="V118">
-        <v>1.000149625002338</v>
+        <v>0.0001496250023378387</v>
       </c>
       <c r="W118">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9897,7 +9897,7 @@
         <v>1.109248967670085</v>
       </c>
       <c r="K119">
-        <v>52.58975989427089</v>
+        <v>0.02589759894270893</v>
       </c>
       <c r="L119">
         <v>0.004786871309237377</v>
@@ -9927,13 +9927,13 @@
         <v>0.1250000000000284</v>
       </c>
       <c r="U119">
-        <v>0.9999812909260992</v>
+        <v>-1.870907390078003E-05</v>
       </c>
       <c r="V119">
-        <v>1.000093501636279</v>
+        <v>9.350163627863672E-05</v>
       </c>
       <c r="W119">
-        <v>1.000561009817672</v>
+        <v>0.0005610098176718203</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9968,7 +9968,7 @@
         <v>1.052453107639308</v>
       </c>
       <c r="K120">
-        <v>51.27781500693185</v>
+        <v>0.01277815006931848</v>
       </c>
       <c r="L120">
         <v>0.005018525986142186</v>
@@ -9998,13 +9998,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U120">
-        <v>0.9999812905760632</v>
+        <v>-1.870942393678021E-05</v>
       </c>
       <c r="V120">
-        <v>1.000112191473448</v>
+        <v>0.0001121914734478757</v>
       </c>
       <c r="W120">
-        <v>0.9997196523689376</v>
+        <v>-0.0002803476310624387</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10039,7 +10039,7 @@
         <v>0.9500441755971155</v>
       </c>
       <c r="K121">
-        <v>48.71911044303425</v>
+        <v>-0.01280889556965747</v>
       </c>
       <c r="L121">
         <v>0.004871393815997977</v>
@@ -10069,13 +10069,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U121">
-        <v>0.9999719353390212</v>
+        <v>-2.806466097882154E-05</v>
       </c>
       <c r="V121">
-        <v>1.000074785925289</v>
+        <v>7.478592528897821E-05</v>
       </c>
       <c r="W121">
-        <v>0.9994391475042063</v>
+        <v>-0.00056085249579374</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10110,7 +10110,7 @@
         <v>1.052470473786955</v>
       </c>
       <c r="K122">
-        <v>51.27822724996729</v>
+        <v>0.0127822724996729</v>
       </c>
       <c r="L122">
         <v>0.004690805821331645</v>
@@ -10140,13 +10140,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U122">
-        <v>0.9999812897009159</v>
+        <v>-1.871029908406818E-05</v>
       </c>
       <c r="V122">
-        <v>1.000056085249579</v>
+        <v>5.608524957922967E-05</v>
       </c>
       <c r="W122">
-        <v>1.000561167227834</v>
+        <v>0.0005611672278340585</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10181,7 +10181,7 @@
         <v>0.8657788476486348</v>
       </c>
       <c r="K123">
-        <v>46.40307980443345</v>
+        <v>-0.03596920195566555</v>
       </c>
       <c r="L123">
         <v>0.004075698746240974</v>
@@ -10211,13 +10211,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U123">
-        <v>0.9999251574033362</v>
+        <v>-7.484259666379334E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999626119305332</v>
+        <v>-3.738806946684825E-05</v>
       </c>
       <c r="W123">
-        <v>0.9988782950084127</v>
+        <v>-0.001121704991587258</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10252,7 +10252,7 @@
         <v>0.9124588985604573</v>
       </c>
       <c r="K124">
-        <v>47.71129456676333</v>
+        <v>-0.02288705433236671</v>
       </c>
       <c r="L124">
         <v>0.003323928330212434</v>
@@ -10282,13 +10282,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U124">
-        <v>0.999953219875939</v>
+        <v>-4.678012406100773E-05</v>
       </c>
       <c r="V124">
-        <v>0.9999813052663065</v>
+        <v>-1.869473369353614E-05</v>
       </c>
       <c r="W124">
-        <v>1.000280741156654</v>
+        <v>0.0002807411566536633</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10323,7 +10323,7 @@
         <v>1.059869585650395</v>
       </c>
       <c r="K125">
-        <v>51.45323728423059</v>
+        <v>0.01453237284230591</v>
       </c>
       <c r="L125">
         <v>0.002831673663447746</v>
@@ -10353,13 +10353,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U125">
-        <v>1.000028069387526</v>
+        <v>2.806938752608623E-05</v>
       </c>
       <c r="V125">
-        <v>1.000056085249579</v>
+        <v>5.608524957922967E-05</v>
       </c>
       <c r="W125">
-        <v>1.000841987089531</v>
+        <v>0.0008419870895313153</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10394,7 +10394,7 @@
         <v>0.9605087093035003</v>
       </c>
       <c r="K126">
-        <v>48.99283052125462</v>
+        <v>-0.01007169478745384</v>
       </c>
       <c r="L126">
         <v>0.002313363541110589</v>
@@ -10424,13 +10424,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U126">
-        <v>1.000018712399771</v>
+        <v>1.871239977146999E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999813059652665</v>
+        <v>-1.869403473353515E-05</v>
       </c>
       <c r="W126">
-        <v>0.9994391475042063</v>
+        <v>-0.00056085249579374</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10465,7 +10465,7 @@
         <v>0.9605087093035004</v>
       </c>
       <c r="K127">
-        <v>48.99283052125462</v>
+        <v>-0.01007169478745384</v>
       </c>
       <c r="L127">
         <v>0.001803879578179238</v>
@@ -10495,13 +10495,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U127">
-        <v>1.000065492173685</v>
+        <v>6.549217368534421E-05</v>
       </c>
       <c r="V127">
-        <v>0.9999252224631722</v>
+        <v>-7.477753682783028E-05</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10536,7 +10536,7 @@
         <v>0.9605087093035004</v>
       </c>
       <c r="K128">
-        <v>48.99283052125462</v>
+        <v>-0.01007169478745384</v>
       </c>
       <c r="L128">
         <v>0.001325642966818062</v>
@@ -10566,13 +10566,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U128">
-        <v>1.000093554121059</v>
+        <v>9.355412105893635E-05</v>
       </c>
       <c r="V128">
-        <v>0.9998878253066108</v>
+        <v>-0.0001121746933891998</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10607,7 +10607,7 @@
         <v>1.069852007004866</v>
       </c>
       <c r="K129">
-        <v>51.68736718297905</v>
+        <v>0.01687367182979049</v>
       </c>
       <c r="L129">
         <v>0.001096290963473496</v>
@@ -10637,13 +10637,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U129">
-        <v>1.000121608980356</v>
+        <v>0.0001216089803555143</v>
       </c>
       <c r="V129">
-        <v>0.9999252084813582</v>
+        <v>-7.479151864175915E-05</v>
       </c>
       <c r="W129">
-        <v>1.000561167227834</v>
+        <v>0.0005611672278340585</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10678,7 +10678,7 @@
         <v>1.184950215111535</v>
       </c>
       <c r="K130">
-        <v>54.23236680251073</v>
+        <v>0.04232366802510734</v>
       </c>
       <c r="L130">
         <v>0.001232638978134441</v>
@@ -10708,13 +10708,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U130">
-        <v>1.000140300992396</v>
+        <v>0.0001403009923957033</v>
       </c>
       <c r="V130">
-        <v>1.000018699278208</v>
+        <v>1.869927820785655E-05</v>
       </c>
       <c r="W130">
-        <v>1.000560852495794</v>
+        <v>0.0005608524957936289</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10749,7 +10749,7 @@
         <v>1.245528219378186</v>
       </c>
       <c r="K131">
-        <v>55.46704818178983</v>
+        <v>0.05467048181789835</v>
       </c>
       <c r="L131">
         <v>0.001679498219533201</v>
@@ -10779,13 +10779,13 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <v>1.000130929223403</v>
+        <v>0.0001309292234026316</v>
       </c>
       <c r="V131">
-        <v>1.000018698928551</v>
+        <v>1.86989285513306E-05</v>
       </c>
       <c r="W131">
-        <v>1.000280269058296</v>
+        <v>0.0002802690582959233</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10820,7 +10820,7 @@
         <v>1.170866378858038</v>
       </c>
       <c r="K132">
-        <v>53.93544210095328</v>
+        <v>0.03935442100953279</v>
       </c>
       <c r="L132">
         <v>0.002177712270390712</v>
@@ -10850,13 +10850,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U132">
-        <v>1.000065456041592</v>
+        <v>6.545604159247098E-05</v>
       </c>
       <c r="V132">
-        <v>1.000037397157816</v>
+        <v>3.739715781603259E-05</v>
       </c>
       <c r="W132">
-        <v>0.99971980947044</v>
+        <v>-0.0002801905295599649</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10891,7 +10891,7 @@
         <v>1.170866378858038</v>
       </c>
       <c r="K133">
-        <v>53.93544210095328</v>
+        <v>0.03935442100953279</v>
       </c>
       <c r="L133">
         <v>0.002667341568980942</v>
@@ -10921,13 +10921,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U133">
-        <v>1.000102852761597</v>
+        <v>0.0001028527615967167</v>
       </c>
       <c r="V133">
-        <v>1.000056093638981</v>
+        <v>5.60936389812916E-05</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10962,7 +10962,7 @@
         <v>1.097941280499851</v>
       </c>
       <c r="K134">
-        <v>52.33422358886315</v>
+        <v>0.02334223588863149</v>
       </c>
       <c r="L134">
         <v>0.003008692197517833</v>
@@ -10992,13 +10992,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U134">
-        <v>1.00004674644727</v>
+        <v>4.674644726998523E-05</v>
       </c>
       <c r="V134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W134">
-        <v>0.999719730941704</v>
+        <v>-0.0002802690582960343</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11033,7 +11033,7 @@
         <v>0.8698326241066037</v>
       </c>
       <c r="K135">
-        <v>46.51927733490077</v>
+        <v>-0.03480722665099228</v>
       </c>
       <c r="L135">
         <v>0.002818932205070072</v>
@@ -11063,13 +11063,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U135">
-        <v>1.000028046557285</v>
+        <v>2.804655728527727E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999439095073387</v>
+        <v>-5.609049266130928E-05</v>
       </c>
       <c r="W135">
-        <v>0.99887860947575</v>
+        <v>-0.001121390524249977</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11104,7 +11104,7 @@
         <v>0.8698326241066037</v>
       </c>
       <c r="K136">
-        <v>46.51927733490077</v>
+        <v>-0.03480722665099228</v>
       </c>
       <c r="L136">
         <v>0.002309276602688748</v>
@@ -11134,13 +11134,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U136">
-        <v>1.000028045770698</v>
+        <v>2.80457706975934E-05</v>
       </c>
       <c r="V136">
-        <v>0.9999813021203392</v>
+        <v>-1.869787966080061E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11175,7 +11175,7 @@
         <v>0.927383965497054</v>
       </c>
       <c r="K137">
-        <v>48.11620217344137</v>
+        <v>-0.01883797826558625</v>
       </c>
       <c r="L137">
         <v>0.001732050471220508</v>
@@ -11205,13 +11205,13 @@
         <v>0.046875</v>
       </c>
       <c r="U137">
-        <v>1.000009348328051</v>
+        <v>9.348328051439481E-06</v>
       </c>
       <c r="V137">
-        <v>0.9999626035414448</v>
+        <v>-3.739645855516116E-05</v>
       </c>
       <c r="W137">
-        <v>1.000280662363177</v>
+        <v>0.0002806623631770311</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11246,7 +11246,7 @@
         <v>0.8744117853154513</v>
       </c>
       <c r="K138">
-        <v>46.64992997620816</v>
+        <v>-0.03350070023791846</v>
       </c>
       <c r="L138">
         <v>0.001042237337531539</v>
@@ -11276,13 +11276,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U138">
-        <v>0.9999906517593389</v>
+        <v>-9.348240661122276E-06</v>
       </c>
       <c r="V138">
-        <v>1.000018698928551</v>
+        <v>1.86989285513306E-05</v>
       </c>
       <c r="W138">
-        <v>0.9997194163860832</v>
+        <v>-0.0002805836139168072</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11317,7 +11317,7 @@
         <v>0.9946644352196903</v>
       </c>
       <c r="K139">
-        <v>49.86625407547004</v>
+        <v>-0.001337459245299599</v>
       </c>
       <c r="L139">
         <v>0.0005286482972801755</v>
@@ -11347,13 +11347,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U139">
-        <v>1.000009348328052</v>
+        <v>9.348328051661525E-06</v>
       </c>
       <c r="V139">
-        <v>1.000037397157816</v>
+        <v>3.739715781603259E-05</v>
       </c>
       <c r="W139">
-        <v>1.000561324726354</v>
+        <v>0.0005613247263540622</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11388,7 +11388,7 @@
         <v>0.9946644352196904</v>
       </c>
       <c r="K140">
-        <v>49.86625407547004</v>
+        <v>-0.001337459245299599</v>
       </c>
       <c r="L140">
         <v>0.0001526164164451292</v>
@@ -11418,13 +11418,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U140">
-        <v>1.000018696481322</v>
+        <v>1.869648132202251E-05</v>
       </c>
       <c r="V140">
-        <v>0.9999813021203394</v>
+        <v>-1.869787966057856E-05</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11459,7 +11459,7 @@
         <v>1.061286401925659</v>
       </c>
       <c r="K141">
-        <v>51.48660569119374</v>
+        <v>0.01486605691193743</v>
       </c>
       <c r="L141">
         <v>-1.45450714947195E-05</v>
@@ -11489,13 +11489,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U141">
-        <v>1.000009348065885</v>
+        <v>9.348065885150803E-06</v>
       </c>
       <c r="V141">
-        <v>1.000037396458555</v>
+        <v>3.739645855538321E-05</v>
       </c>
       <c r="W141">
-        <v>1.000280504908836</v>
+        <v>0.0002805049088359102</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11530,7 +11530,7 @@
         <v>0.9307433448103775</v>
       </c>
       <c r="K142">
-        <v>48.2064769153348</v>
+        <v>-0.01793523084665205</v>
       </c>
       <c r="L142">
         <v>-0.0002487284167211745</v>
@@ -11560,13 +11560,13 @@
         <v>-0.06562500000003979</v>
       </c>
       <c r="U142">
-        <v>0.9999626080860015</v>
+        <v>-3.739191399854125E-05</v>
       </c>
       <c r="V142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>0.9994391475042063</v>
+        <v>-0.00056085249579374</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11601,7 +11601,7 @@
         <v>0.7793749294199314</v>
       </c>
       <c r="K143">
-        <v>43.80048951650703</v>
+        <v>-0.0619951048349297</v>
       </c>
       <c r="L143">
         <v>-0.0008140853968848332</v>
@@ -11631,13 +11631,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U143">
-        <v>0.9999158650475364</v>
+        <v>-8.413495246362146E-05</v>
       </c>
       <c r="V143">
-        <v>0.9999439074098312</v>
+        <v>-5.60925901688103E-05</v>
       </c>
       <c r="W143">
-        <v>0.9991582491582492</v>
+        <v>-0.0008417508417507547</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11672,7 +11672,7 @@
         <v>0.7373017135865567</v>
       </c>
       <c r="K144">
-        <v>42.43947426175278</v>
+        <v>-0.0756052573824722</v>
       </c>
       <c r="L144">
         <v>-0.001643229775316982</v>
@@ -11702,13 +11702,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U144">
-        <v>0.9999065088536117</v>
+        <v>-9.349114638834699E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998878085265518</v>
+        <v>-0.0001121914734482088</v>
       </c>
       <c r="W144">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11743,7 +11743,7 @@
         <v>0.7373017135865567</v>
       </c>
       <c r="K145">
-        <v>42.43947426175278</v>
+        <v>-0.0756052573824722</v>
       </c>
       <c r="L145">
         <v>-0.002573393782227028</v>
@@ -11773,13 +11773,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U145">
-        <v>0.9999345500785398</v>
+        <v>-6.544992146018114E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998503945842839</v>
+        <v>-0.0001496054157160698</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11814,7 +11814,7 @@
         <v>0.7373017135865567</v>
       </c>
       <c r="K146">
-        <v>42.43947426175278</v>
+        <v>-0.0756052573824722</v>
       </c>
       <c r="L146">
         <v>-0.003496158553903051</v>
@@ -11844,13 +11844,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U146">
-        <v>0.9999251951937913</v>
+        <v>-7.480480620869479E-05</v>
       </c>
       <c r="V146">
-        <v>0.999831668724049</v>
+        <v>-0.0001683312759509503</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11885,7 +11885,7 @@
         <v>0.6936284772439421</v>
       </c>
       <c r="K147">
-        <v>40.95517326047153</v>
+        <v>-0.09044826739528472</v>
       </c>
       <c r="L147">
         <v>-0.004445101138549849</v>
@@ -11915,13 +11915,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U147">
-        <v>0.9999345408979118</v>
+        <v>-6.54591020882167E-05</v>
       </c>
       <c r="V147">
-        <v>0.99983164038386</v>
+        <v>-0.0001683596161400347</v>
       </c>
       <c r="W147">
-        <v>0.9997191011235954</v>
+        <v>-0.0002808988764045894</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11956,7 +11956,7 @@
         <v>0.8183313685621816</v>
       </c>
       <c r="K148">
-        <v>45.00452352693365</v>
+        <v>-0.04995476473066351</v>
       </c>
       <c r="L148">
         <v>-0.00512902492874643</v>
@@ -11986,13 +11986,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U148">
-        <v>0.9999625923501356</v>
+        <v>-3.740764986437384E-05</v>
       </c>
       <c r="V148">
-        <v>0.9998690315820985</v>
+        <v>-0.0001309684179015003</v>
       </c>
       <c r="W148">
-        <v>1.000561955605507</v>
+        <v>0.0005619556055072028</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12027,7 +12027,7 @@
         <v>0.8839644692559544</v>
       </c>
       <c r="K149">
-        <v>46.92044269842646</v>
+        <v>-0.03079557301573538</v>
       </c>
       <c r="L149">
         <v>-0.005488014676979903</v>
@@ -12057,13 +12057,13 @@
         <v>-0.09062499999996021</v>
       </c>
       <c r="U149">
-        <v>0.9999532386884388</v>
+        <v>-4.676131156122754E-05</v>
       </c>
       <c r="V149">
-        <v>0.999906438876518</v>
+        <v>-9.356112348202217E-05</v>
       </c>
       <c r="W149">
-        <v>1.000280819994384</v>
+        <v>0.0002808199943835632</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12098,7 +12098,7 @@
         <v>0.7766507865643901</v>
       </c>
       <c r="K150">
-        <v>43.71431867408472</v>
+        <v>-0.06285681325915282</v>
       </c>
       <c r="L150">
         <v>-0.005811604768664711</v>
@@ -12128,13 +12128,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U150">
-        <v>0.9999438838020593</v>
+        <v>-5.611619794065881E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999438580732091</v>
+        <v>-5.614192679093133E-05</v>
       </c>
       <c r="W150">
-        <v>0.9994385176866929</v>
+        <v>-0.0005614823133071045</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12169,7 +12169,7 @@
         <v>0.7300070086772256</v>
       </c>
       <c r="K151">
-        <v>42.1967659677514</v>
+        <v>-0.07803234032248596</v>
       </c>
       <c r="L151">
         <v>-0.006174164958518086</v>
@@ -12199,13 +12199,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U151">
-        <v>0.9999532338773792</v>
+        <v>-4.676612262077828E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999251398948218</v>
+        <v>-7.48601051782094E-05</v>
       </c>
       <c r="W151">
-        <v>0.9997191011235954</v>
+        <v>-0.0002808988764045894</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12240,7 +12240,7 @@
         <v>0.7932255290403228</v>
       </c>
       <c r="K152">
-        <v>44.23456593688089</v>
+        <v>-0.05765434063119107</v>
       </c>
       <c r="L152">
         <v>-0.006412632254051397</v>
@@ -12270,13 +12270,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U152">
-        <v>0.9999438780282479</v>
+        <v>-5.612197175208777E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999251342903666</v>
+        <v>-7.486570963344263E-05</v>
       </c>
       <c r="W152">
-        <v>1.000280977802754</v>
+        <v>0.0002809778027537124</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12311,7 +12311,7 @@
         <v>0.7000541825279037</v>
       </c>
       <c r="K153">
-        <v>41.17834535643768</v>
+        <v>-0.08821654643562321</v>
       </c>
       <c r="L153">
         <v>-0.006741747463730526</v>
@@ -12341,13 +12341,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U153">
-        <v>0.9999625832522637</v>
+        <v>-3.741674773627413E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999064108563406</v>
+        <v>-9.358914365942272E-05</v>
       </c>
       <c r="W153">
-        <v>0.999438202247191</v>
+        <v>-0.0005617977528089568</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12382,7 +12382,7 @@
         <v>0.8855155009073402</v>
       </c>
       <c r="K154">
-        <v>46.96410612807033</v>
+        <v>-0.03035893871929668</v>
       </c>
       <c r="L154">
         <v>-0.006773776565866104</v>
@@ -12412,13 +12412,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U154">
-        <v>0.9999812909260993</v>
+        <v>-1.8709073900669E-05</v>
       </c>
       <c r="V154">
-        <v>0.9999251216772743</v>
+        <v>-7.487832272567996E-05</v>
       </c>
       <c r="W154">
-        <v>1.000843170320405</v>
+        <v>0.000843170320404818</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12453,7 +12453,7 @@
         <v>0.9505896477071178</v>
       </c>
       <c r="K155">
-        <v>48.73345087340736</v>
+        <v>-0.01266549126592642</v>
       </c>
       <c r="L155">
         <v>-0.006496909235712965</v>
@@ -12483,13 +12483,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U155">
-        <v>0.9999625811521262</v>
+        <v>-3.741884787378247E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999438370525686</v>
+        <v>-5.616294743138184E-05</v>
       </c>
       <c r="W155">
-        <v>1.000280819994384</v>
+        <v>0.0002808199943835632</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12524,7 +12524,7 @@
         <v>0.9505896477071177</v>
       </c>
       <c r="K156">
-        <v>48.73345087340735</v>
+        <v>-0.01266549126592653</v>
       </c>
       <c r="L156">
         <v>-0.006026847889937076</v>
@@ -12554,13 +12554,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U156">
-        <v>0.9999812898759519</v>
+        <v>-1.871012404808248E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999251118641531</v>
+        <v>-7.488813584688447E-05</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12595,7 +12595,7 @@
         <v>0.8866577924732445</v>
       </c>
       <c r="K157">
-        <v>46.99621712058937</v>
+        <v>-0.03003782879410627</v>
       </c>
       <c r="L157">
         <v>-0.005549920874597311</v>
@@ -12625,13 +12625,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U157">
-        <v>0.999971934288815</v>
+        <v>-2.806571118496581E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999438296916248</v>
+        <v>-5.617030837523629E-05</v>
       </c>
       <c r="W157">
-        <v>0.9997192588433466</v>
+        <v>-0.0002807411566534412</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12666,7 +12666,7 @@
         <v>0.8866577924732446</v>
       </c>
       <c r="K158">
-        <v>46.99621712058938</v>
+        <v>-0.03003782879410621</v>
       </c>
       <c r="L158">
         <v>-0.005079011337882864</v>
@@ -12696,13 +12696,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U158">
-        <v>0.9999719335011084</v>
+        <v>-2.806649889164348E-05</v>
       </c>
       <c r="V158">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12737,7 +12737,7 @@
         <v>0.6459678575744028</v>
       </c>
       <c r="K159">
-        <v>39.24547217625135</v>
+        <v>-0.1075452782374864</v>
       </c>
       <c r="L159">
         <v>-0.005134320772891752</v>
@@ -12767,13 +12767,13 @@
         <v>0</v>
       </c>
       <c r="U159">
-        <v>0.9999064423778606</v>
+        <v>-9.355762213936192E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999251020484589</v>
+        <v>-7.489795154114187E-05</v>
       </c>
       <c r="W159">
-        <v>0.998595900028082</v>
+        <v>-0.001404099971918038</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12808,7 +12808,7 @@
         <v>0.7031168114007723</v>
       </c>
       <c r="K160">
-        <v>41.28412136466881</v>
+        <v>-0.08715878635331192</v>
       </c>
       <c r="L160">
         <v>-0.005384074089058506</v>
@@ -12838,13 +12838,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U160">
-        <v>0.9998970769864141</v>
+        <v>-0.0001029230135859427</v>
       </c>
       <c r="V160">
-        <v>0.9999438223287519</v>
+        <v>-5.617767124810324E-05</v>
       </c>
       <c r="W160">
-        <v>1.000281214848144</v>
+        <v>0.0002812148481439181</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12879,7 +12879,7 @@
         <v>0.7632736049022482</v>
       </c>
       <c r="K161">
-        <v>43.28730395442869</v>
+        <v>-0.06712696045571315</v>
       </c>
       <c r="L161">
         <v>-0.005613938561222132</v>
@@ -12909,13 +12909,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U161">
-        <v>0.9998970663921771</v>
+        <v>-0.0001029336078228749</v>
       </c>
       <c r="V161">
-        <v>0.9999625461150955</v>
+        <v>-3.745388490450363E-05</v>
       </c>
       <c r="W161">
-        <v>1.000281135788586</v>
+        <v>0.0002811357885859067</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12950,7 +12950,7 @@
         <v>0.9532424264858199</v>
       </c>
       <c r="K162">
-        <v>48.80307807980845</v>
+        <v>-0.01196921920191552</v>
       </c>
       <c r="L162">
         <v>-0.005490006025991516</v>
@@ -12980,13 +12980,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U162">
-        <v>0.9999344900518465</v>
+        <v>-6.550994815346378E-05</v>
       </c>
       <c r="V162">
-        <v>1.00003745528775</v>
+        <v>3.74552877502321E-05</v>
       </c>
       <c r="W162">
-        <v>1.000843170320405</v>
+        <v>0.000843170320404818</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13021,7 +13021,7 @@
         <v>0.8411124967789168</v>
       </c>
       <c r="K163">
-        <v>45.68501372134886</v>
+        <v>-0.04314986278651139</v>
       </c>
       <c r="L163">
         <v>-0.005344074227075278</v>
@@ -13051,13 +13051,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U163">
-        <v>0.9999157674057296</v>
+        <v>-8.423259427037255E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999625461150958</v>
+        <v>-3.745388490417056E-05</v>
       </c>
       <c r="W163">
-        <v>0.9994383600112327</v>
+        <v>-0.0005616399887673484</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13092,7 +13092,7 @@
         <v>0.7920747236622778</v>
       </c>
       <c r="K164">
-        <v>44.1987553980783</v>
+        <v>-0.05801244601921696</v>
       </c>
       <c r="L164">
         <v>-0.00527690157627519</v>
@@ -13122,13 +13122,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U164">
-        <v>0.9999157603100022</v>
+        <v>-8.423968999782261E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999250894244995</v>
+        <v>-7.49105755004642E-05</v>
       </c>
       <c r="W164">
-        <v>0.9997190221972465</v>
+        <v>-0.0002809778027534904</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13163,7 +13163,7 @@
         <v>0.7920747236622779</v>
       </c>
       <c r="K165">
-        <v>44.19875539807831</v>
+        <v>-0.0580124460192169</v>
       </c>
       <c r="L165">
         <v>-0.00524253235038996</v>
@@ -13193,13 +13193,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U165">
-        <v>0.9999531962294881</v>
+        <v>-4.68037705119162E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999625419062425</v>
+        <v>-3.745809375754749E-05</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13234,7 +13234,7 @@
         <v>0.8566742663938349</v>
       </c>
       <c r="K166">
-        <v>46.14025636590142</v>
+        <v>-0.03859743634098578</v>
       </c>
       <c r="L166">
         <v>-0.005108904460624118</v>
@@ -13264,13 +13264,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U166">
-        <v>0.9999625552310343</v>
+        <v>-3.744476896572202E-05</v>
       </c>
       <c r="V166">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W166">
-        <v>1.000281056773468</v>
+        <v>0.0002810567734681246</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13305,7 +13305,7 @@
         <v>0.802129824426177</v>
       </c>
       <c r="K167">
-        <v>44.51010207777823</v>
+        <v>-0.0548989792222177</v>
       </c>
       <c r="L167">
         <v>-0.005007307968196161</v>
@@ -13335,13 +13335,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U167">
-        <v>0.9999438307433067</v>
+        <v>-5.616925669327255E-05</v>
       </c>
       <c r="V167">
-        <v>0.9999625405030811</v>
+        <v>-3.745949691891237E-05</v>
       </c>
       <c r="W167">
-        <v>0.9997190221972465</v>
+        <v>-0.0002809778027534904</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13376,7 +13376,7 @@
         <v>0.802129824426177</v>
       </c>
       <c r="K168">
-        <v>44.51010207777823</v>
+        <v>-0.0548989792222177</v>
       </c>
       <c r="L168">
         <v>-0.004913371900397332</v>
@@ -13406,13 +13406,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U168">
-        <v>0.9999531896567863</v>
+        <v>-4.681034321374344E-05</v>
       </c>
       <c r="V168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13447,7 +13447,7 @@
         <v>0.7492699773780265</v>
       </c>
       <c r="K169">
-        <v>42.83329543568249</v>
+        <v>-0.07166704564317505</v>
       </c>
       <c r="L169">
         <v>-0.004914448906150283</v>
@@ -13477,13 +13477,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U169">
-        <v>0.9999250999447613</v>
+        <v>-7.490005523869137E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999250781996292</v>
+        <v>-7.492180037083074E-05</v>
       </c>
       <c r="W169">
-        <v>0.9997189432265317</v>
+        <v>-0.0002810567734683467</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13518,7 +13518,7 @@
         <v>1.096108746906409</v>
       </c>
       <c r="K170">
-        <v>52.29255154457643</v>
+        <v>0.02292551544576427</v>
       </c>
       <c r="L170">
         <v>-0.004443791916197337</v>
@@ -13548,13 +13548,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U170">
-        <v>0.9999719103753709</v>
+        <v>-2.80896246290796E-05</v>
       </c>
       <c r="V170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W170">
-        <v>1.00140567894293</v>
+        <v>0.001405678942929534</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13589,7 +13589,7 @@
         <v>1.021518785120866</v>
       </c>
       <c r="K171">
-        <v>50.5322430164699</v>
+        <v>0.005322430164699021</v>
       </c>
       <c r="L171">
         <v>-0.003803370935441856</v>
@@ -13619,13 +13619,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U171">
-        <v>0.9999531826438698</v>
+        <v>-4.681735613021321E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999812681464831</v>
+        <v>-1.873185351686235E-05</v>
       </c>
       <c r="W171">
-        <v>0.9997192588433466</v>
+        <v>-0.0002807411566534412</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13660,7 +13660,7 @@
         <v>1.021518785120866</v>
       </c>
       <c r="K172">
-        <v>50.5322430164699</v>
+        <v>0.005322430164699021</v>
       </c>
       <c r="L172">
         <v>-0.003087034757985446</v>
@@ -13690,13 +13690,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U172">
-        <v>0.9999719082711414</v>
+        <v>-2.809172885864797E-05</v>
       </c>
       <c r="V172">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13731,7 +13731,7 @@
         <v>1.172321627149778</v>
       </c>
       <c r="K173">
-        <v>53.96630096105692</v>
+        <v>0.03966300961056923</v>
       </c>
       <c r="L173">
         <v>-0.002154531467966305</v>
@@ -13761,13 +13761,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U173">
-        <v>1.000018728345351</v>
+        <v>1.872834535077139E-05</v>
       </c>
       <c r="V173">
-        <v>1.000037464408812</v>
+        <v>3.746440881169377E-05</v>
       </c>
       <c r="W173">
-        <v>1.000561639988767</v>
+        <v>0.0005616399887671264</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13802,7 +13802,7 @@
         <v>1.011721175918837</v>
       </c>
       <c r="K174">
-        <v>50.29132207930067</v>
+        <v>0.00291322079300671</v>
       </c>
       <c r="L174">
         <v>-0.001347194599312981</v>
@@ -13832,13 +13832,13 @@
         <v>0.046875</v>
       </c>
       <c r="U174">
-        <v>1.000009363997303</v>
+        <v>9.363997303113436E-06</v>
       </c>
       <c r="V174">
-        <v>1.000093657513206</v>
+        <v>9.365751320555837E-05</v>
       </c>
       <c r="W174">
-        <v>0.9994386752736458</v>
+        <v>-0.0005613247263541732</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13873,7 +13873,7 @@
         <v>0.9436800988723941</v>
       </c>
       <c r="K175">
-        <v>48.55120446105614</v>
+        <v>-0.01448795538943864</v>
       </c>
       <c r="L175">
         <v>-0.0007645213092677409</v>
@@ -13903,13 +13903,13 @@
         <v>0.046875</v>
       </c>
       <c r="U175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V175">
-        <v>1.000056189245378</v>
+        <v>5.618924537831305E-05</v>
       </c>
       <c r="W175">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13944,7 +13944,7 @@
         <v>1.085264930878327</v>
       </c>
       <c r="K176">
-        <v>52.04446278301944</v>
+        <v>0.02044462783019441</v>
       </c>
       <c r="L176">
         <v>-0.000147735529042704</v>
@@ -13974,13 +13974,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U176">
-        <v>1.000018727819239</v>
+        <v>1.872781923917266E-05</v>
       </c>
       <c r="V176">
-        <v>1.000074914784433</v>
+        <v>7.491478443277799E-05</v>
       </c>
       <c r="W176">
-        <v>1.000561797752809</v>
+        <v>0.0005617977528089568</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14015,7 +14015,7 @@
         <v>1.085264930878327</v>
       </c>
       <c r="K177">
-        <v>52.04446278301944</v>
+        <v>0.02044462783019441</v>
       </c>
       <c r="L177">
         <v>0.0004509468280500061</v>
@@ -14045,13 +14045,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U177">
-        <v>1.000028091202771</v>
+        <v>2.809120277147414E-05</v>
       </c>
       <c r="V177">
-        <v>1.000018727293157</v>
+        <v>1.872729315688382E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14086,7 +14086,7 @@
         <v>1.006328194911903</v>
       </c>
       <c r="K178">
-        <v>50.15770587603643</v>
+        <v>0.001577058760364292</v>
       </c>
       <c r="L178">
         <v>0.0008965742006563041</v>
@@ -14116,13 +14116,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V178">
-        <v>1.000037453884904</v>
+        <v>3.745388490439261E-05</v>
       </c>
       <c r="W178">
-        <v>0.9997192588433466</v>
+        <v>-0.0002807411566534412</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14157,7 +14157,7 @@
         <v>1.082891344289669</v>
       </c>
       <c r="K179">
-        <v>51.98981441151309</v>
+        <v>0.01989814411513091</v>
       </c>
       <c r="L179">
         <v>0.001320095278555895</v>
@@ -14187,13 +14187,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U179">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V179">
-        <v>1.000074904964326</v>
+        <v>7.490496432649429E-05</v>
       </c>
       <c r="W179">
-        <v>1.000280819994384</v>
+        <v>0.0002808199943835632</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14228,7 +14228,7 @@
         <v>1.244076921927117</v>
       </c>
       <c r="K180">
-        <v>55.438247671954</v>
+        <v>0.05438247671954</v>
       </c>
       <c r="L180">
         <v>0.001902989690482609</v>
@@ -14258,13 +14258,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U180">
-        <v>1.000037453884904</v>
+        <v>3.745388490417056E-05</v>
       </c>
       <c r="V180">
-        <v>1.00011234903099</v>
+        <v>0.0001123490309895558</v>
       </c>
       <c r="W180">
-        <v>1.000561482313307</v>
+        <v>0.0005614823133071045</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14299,7 +14299,7 @@
         <v>1.413745951019216</v>
       </c>
       <c r="K181">
-        <v>58.57061926596935</v>
+        <v>0.08570619265969348</v>
       </c>
       <c r="L181">
         <v>0.002742906267826591</v>
@@ -14329,13 +14329,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U181">
-        <v>1.000065541843786</v>
+        <v>6.554184378559924E-05</v>
       </c>
       <c r="V181">
-        <v>1.00013105914512</v>
+        <v>0.000131059145119794</v>
       </c>
       <c r="W181">
-        <v>1.000561167227834</v>
+        <v>0.0005611672278340585</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14370,7 +14370,7 @@
         <v>1.115030886012723</v>
       </c>
       <c r="K182">
-        <v>52.71936657694822</v>
+        <v>0.02719366576948223</v>
       </c>
       <c r="L182">
         <v>0.003368134324856737</v>
@@ -14400,13 +14400,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U182">
-        <v>1.000028087520715</v>
+        <v>2.808752071459253E-05</v>
       </c>
       <c r="V182">
-        <v>1.000093601407765</v>
+        <v>9.360140776526471E-05</v>
       </c>
       <c r="W182">
-        <v>0.9991587212563096</v>
+        <v>-0.0008412787436904434</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14441,7 +14441,7 @@
         <v>1.263306894775793</v>
       </c>
       <c r="K183">
-        <v>55.81686238361142</v>
+        <v>0.0581686238361141</v>
       </c>
       <c r="L183">
         <v>0.004015725475419214</v>
@@ -14471,13 +14471,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U183">
-        <v>1.000065535707598</v>
+        <v>6.553570759826322E-05</v>
       </c>
       <c r="V183">
-        <v>1.000131029706306</v>
+        <v>0.0001310297063061849</v>
       </c>
       <c r="W183">
-        <v>1.000561324726354</v>
+        <v>0.0005613247263540622</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14512,7 +14512,7 @@
         <v>1.263306894775793</v>
       </c>
       <c r="K184">
-        <v>55.81686238361141</v>
+        <v>0.0581686238361141</v>
       </c>
       <c r="L184">
         <v>0.004620932127721749</v>
@@ -14542,13 +14542,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U184">
-        <v>1.000037446521686</v>
+        <v>3.744652168613527E-05</v>
       </c>
       <c r="V184">
-        <v>1.000149728616882</v>
+        <v>0.0001497286168818945</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14583,7 +14583,7 @@
         <v>1.167407440034171</v>
       </c>
       <c r="K185">
-        <v>53.86192824067106</v>
+        <v>0.03861928240671064</v>
       </c>
       <c r="L185">
         <v>0.005042759159741383</v>
@@ -14613,13 +14613,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U185">
-        <v>1.000018722559748</v>
+        <v>1.872255974832981E-05</v>
       </c>
       <c r="V185">
-        <v>1.000037426550395</v>
+        <v>3.742655039484788E-05</v>
       </c>
       <c r="W185">
-        <v>0.999719495091164</v>
+        <v>-0.0002805049088360212</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14654,7 +14654,7 @@
         <v>0.9416699748255613</v>
       </c>
       <c r="K186">
-        <v>48.49794182506017</v>
+        <v>-0.01502058174939824</v>
       </c>
       <c r="L186">
         <v>0.005001440211460885</v>
@@ -14684,13 +14684,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U186">
-        <v>0.9999906388953896</v>
+        <v>-9.361104610361437E-06</v>
       </c>
       <c r="V186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W186">
-        <v>0.9991582491582492</v>
+        <v>-0.0008417508417507547</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14725,7 +14725,7 @@
         <v>0.9416699748255613</v>
       </c>
       <c r="K187">
-        <v>48.49794182506017</v>
+        <v>-0.01502058174939824</v>
       </c>
       <c r="L187">
         <v>0.004663998813881587</v>
@@ -14755,13 +14755,13 @@
         <v>0.05312499999996589</v>
       </c>
       <c r="U187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14796,7 +14796,7 @@
         <v>0.8788999687065543</v>
       </c>
       <c r="K188">
-        <v>46.77736885117913</v>
+        <v>-0.03222631148820865</v>
       </c>
       <c r="L188">
         <v>0.004049462385761903</v>
@@ -14826,13 +14826,13 @@
         <v>0.03125</v>
       </c>
       <c r="U188">
-        <v>0.9999906388077587</v>
+        <v>-9.361192241263971E-06</v>
       </c>
       <c r="V188">
-        <v>0.9999438622754493</v>
+        <v>-5.613772455070887E-05</v>
       </c>
       <c r="W188">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14867,7 +14867,7 @@
         <v>1.019232977973006</v>
       </c>
       <c r="K189">
-        <v>50.4762446479136</v>
+        <v>0.00476244647913604</v>
       </c>
       <c r="L189">
         <v>0.003496007837186108</v>
@@ -14897,13 +14897,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U189">
-        <v>1.000056167679245</v>
+        <v>5.616767924498944E-05</v>
       </c>
       <c r="V189">
-        <v>1.00001871362539</v>
+        <v>1.871362539040966E-05</v>
       </c>
       <c r="W189">
-        <v>1.000561797752809</v>
+        <v>0.0005617977528089568</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14938,7 +14938,7 @@
         <v>1.166951935095587</v>
       </c>
       <c r="K190">
-        <v>53.85222977011307</v>
+        <v>0.03852229770113069</v>
       </c>
       <c r="L190">
         <v>0.003206587379762232</v>
@@ -14968,13 +14968,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U190">
-        <v>1.000065525278717</v>
+        <v>6.552527871650504E-05</v>
       </c>
       <c r="V190">
-        <v>1.00007485310079</v>
+        <v>7.485310078969576E-05</v>
       </c>
       <c r="W190">
-        <v>1.000561482313307</v>
+        <v>0.0005614823133071045</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15009,7 +15009,7 @@
         <v>1.082770010488765</v>
       </c>
       <c r="K191">
-        <v>51.98701753126696</v>
+        <v>0.01987017531266966</v>
       </c>
       <c r="L191">
         <v>0.002981628943096213</v>
@@ -15039,13 +15039,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U191">
-        <v>1.000046800703883</v>
+        <v>4.680070388252133E-05</v>
       </c>
       <c r="V191">
-        <v>1.000018711874556</v>
+        <v>1.871187455582124E-05</v>
       </c>
       <c r="W191">
-        <v>0.9997194163860832</v>
+        <v>-0.0002805836139168072</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15080,7 +15080,7 @@
         <v>1.158705059356436</v>
       </c>
       <c r="K192">
-        <v>53.6759319821984</v>
+        <v>0.03675931982198399</v>
       </c>
       <c r="L192">
         <v>0.002901435490315705</v>
@@ -15110,13 +15110,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U192">
-        <v>1.000028079108207</v>
+        <v>2.807910820745718E-05</v>
       </c>
       <c r="V192">
-        <v>1.000037423048856</v>
+        <v>3.742304885578918E-05</v>
       </c>
       <c r="W192">
-        <v>1.000280662363177</v>
+        <v>0.0002806623631770311</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15151,7 +15151,7 @@
         <v>1.238636689743504</v>
       </c>
       <c r="K193">
-        <v>55.32995574576342</v>
+        <v>0.05329955745763426</v>
       </c>
       <c r="L193">
         <v>0.003005711865063522</v>
@@ -15181,13 +15181,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U193">
-        <v>1.000056156639587</v>
+        <v>5.615663958669082E-05</v>
       </c>
       <c r="V193">
-        <v>1.000074843296847</v>
+        <v>7.484329684714908E-05</v>
       </c>
       <c r="W193">
-        <v>1.000280583613917</v>
+        <v>0.0002805836139170292</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15222,7 +15222,7 @@
         <v>1.238636689743504</v>
       </c>
       <c r="K194">
-        <v>55.32995574576342</v>
+        <v>0.05329955745763426</v>
       </c>
       <c r="L194">
         <v>0.00320413350782365</v>
@@ -15252,13 +15252,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U194">
-        <v>1.000065512400561</v>
+        <v>6.551240056129615E-05</v>
       </c>
       <c r="V194">
-        <v>1.000056128271811</v>
+        <v>5.612827181056268E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15293,7 +15293,7 @@
         <v>1.137859956782014</v>
       </c>
       <c r="K195">
-        <v>53.22425134407602</v>
+        <v>0.03224251344076023</v>
       </c>
       <c r="L195">
         <v>0.003333030113845879</v>
@@ -15323,13 +15323,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U195">
-        <v>1.000056149807687</v>
+        <v>5.614980768697819E-05</v>
       </c>
       <c r="V195">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W195">
-        <v>0.999719495091164</v>
+        <v>-0.0002805049088360212</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15364,7 +15364,7 @@
         <v>1.137859956782014</v>
       </c>
       <c r="K196">
-        <v>53.22425134407602</v>
+        <v>0.03224251344076023</v>
       </c>
       <c r="L196">
         <v>0.003399450397389344</v>
@@ -15394,13 +15394,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U196">
-        <v>1.000046788879219</v>
+        <v>4.678887921927277E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999625832522637</v>
+        <v>-3.741674773627413E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15435,7 +15435,7 @@
         <v>1.137859956782014</v>
       </c>
       <c r="K197">
-        <v>53.22425134407601</v>
+        <v>0.03224251344076012</v>
       </c>
       <c r="L197">
         <v>0.003411405606507485</v>
@@ -15465,13 +15465,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U197">
-        <v>1.000056144028147</v>
+        <v>5.614402814679842E-05</v>
       </c>
       <c r="V197">
-        <v>1.000018709073901</v>
+        <v>1.870907390100207E-05</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15506,7 +15506,7 @@
         <v>1.137859956782014</v>
       </c>
       <c r="K198">
-        <v>53.22425134407601</v>
+        <v>0.03224251344076012</v>
       </c>
       <c r="L198">
         <v>0.003377177640047753</v>
@@ -15536,13 +15536,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U198">
-        <v>1.000056140876172</v>
+        <v>5.614087617189512E-05</v>
       </c>
       <c r="V198">
-        <v>0.9999812912761219</v>
+        <v>-1.870872387810252E-05</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15577,7 +15577,7 @@
         <v>1.337639911067299</v>
       </c>
       <c r="K199">
-        <v>57.22181182543941</v>
+        <v>0.07221811825439406</v>
       </c>
       <c r="L199">
         <v>0.003509283781468323</v>
@@ -15607,13 +15607,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U199">
-        <v>1.000084206586827</v>
+        <v>8.420658682650739E-05</v>
       </c>
       <c r="V199">
-        <v>1.000018709073901</v>
+        <v>1.870907390100207E-05</v>
       </c>
       <c r="W199">
-        <v>1.000561167227834</v>
+        <v>0.0005611672278340585</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15648,7 +15648,7 @@
         <v>1.3376399110673</v>
       </c>
       <c r="K200">
-        <v>57.22181182543943</v>
+        <v>0.07221811825439428</v>
       </c>
       <c r="L200">
         <v>0.00372093687831739</v>
@@ -15678,13 +15678,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U200">
-        <v>1.000037421998522</v>
+        <v>3.742199852196926E-05</v>
       </c>
       <c r="V200">
-        <v>1.000037417447756</v>
+        <v>3.741744775576095E-05</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15719,7 +15719,7 @@
         <v>1.780365571533182</v>
       </c>
       <c r="K201">
-        <v>64.03350659213608</v>
+        <v>0.1403350659213608</v>
       </c>
       <c r="L201">
         <v>0.00436255474519332</v>
@@ -15749,13 +15749,13 @@
         <v>0.07187500000003411</v>
       </c>
       <c r="U201">
-        <v>1.000084196345878</v>
+        <v>8.419634587841784E-05</v>
       </c>
       <c r="V201">
-        <v>1.000168372214843</v>
+        <v>0.0001683722148428934</v>
       </c>
       <c r="W201">
-        <v>1.001121704991587</v>
+        <v>0.001121704991587258</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15790,7 +15790,7 @@
         <v>1.594585583241082</v>
       </c>
       <c r="K202">
-        <v>61.45819947281026</v>
+        <v>0.1145819947281026</v>
       </c>
       <c r="L202">
         <v>0.005105597704853805</v>
@@ -15820,13 +15820,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U202">
-        <v>1.000074834895512</v>
+        <v>7.483489551174394E-05</v>
       </c>
       <c r="V202">
-        <v>1.000149638995922</v>
+        <v>0.0001496389959223521</v>
       </c>
       <c r="W202">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15861,7 +15861,7 @@
         <v>1.704427003194137</v>
       </c>
       <c r="K203">
-        <v>63.02359062311822</v>
+        <v>0.1302359062311822</v>
       </c>
       <c r="L203">
         <v>0.005946273122243058</v>
@@ -15891,13 +15891,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U203">
-        <v>1.000065475633711</v>
+        <v>6.547563371062104E-05</v>
       </c>
       <c r="V203">
-        <v>1.000187020759304</v>
+        <v>0.0001870207593044348</v>
       </c>
       <c r="W203">
-        <v>1.00028019052956</v>
+        <v>0.000280190529560187</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15932,7 +15932,7 @@
         <v>1.704427003194137</v>
       </c>
       <c r="K204">
-        <v>63.02359062311822</v>
+        <v>0.1302359062311822</v>
       </c>
       <c r="L204">
         <v>0.006770780963734946</v>
@@ -15962,13 +15962,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U204">
-        <v>1.000084177446056</v>
+        <v>8.417744605626609E-05</v>
       </c>
       <c r="V204">
-        <v>1.000149588631264</v>
+        <v>0.0001495886312641304</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16003,7 +16003,7 @@
         <v>1.826134947740459</v>
       </c>
       <c r="K205">
-        <v>64.61598548931585</v>
+        <v>0.1461598548931584</v>
       </c>
       <c r="L205">
         <v>0.007610393921527041</v>
@@ -16033,13 +16033,13 @@
         <v>0.1031250000000341</v>
       </c>
       <c r="U205">
-        <v>1.000102874885435</v>
+        <v>0.0001028748854348116</v>
       </c>
       <c r="V205">
-        <v>1.000130870475621</v>
+        <v>0.0001308704756206591</v>
       </c>
       <c r="W205">
-        <v>1.000280112044818</v>
+        <v>0.0002801120448179262</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16074,7 +16074,7 @@
         <v>1.618750900542991</v>
       </c>
       <c r="K206">
-        <v>61.81385561365715</v>
+        <v>0.1181385561365715</v>
       </c>
       <c r="L206">
         <v>0.008275654279740788</v>
@@ -16104,13 +16104,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U206">
-        <v>1.000074810402386</v>
+        <v>7.481040238643821E-05</v>
       </c>
       <c r="V206">
-        <v>1.00013085335078</v>
+        <v>0.0001308533507804466</v>
       </c>
       <c r="W206">
-        <v>0.9997199663959675</v>
+        <v>-0.0002800336040325035</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16145,7 +16145,7 @@
         <v>1.738292447743583</v>
       </c>
       <c r="K207">
-        <v>63.4808911362253</v>
+        <v>0.134808911362253</v>
       </c>
       <c r="L207">
         <v>0.008864858626212686</v>
@@ -16175,13 +16175,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U207">
-        <v>1.000084155406985</v>
+        <v>8.415540698480939E-05</v>
       </c>
       <c r="V207">
-        <v>1.000130836230421</v>
+        <v>0.0001308362304210942</v>
       </c>
       <c r="W207">
-        <v>1.000280112044818</v>
+        <v>0.0002801120448179262</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16216,7 +16216,7 @@
         <v>1.54400530739428</v>
       </c>
       <c r="K208">
-        <v>60.69190590548497</v>
+        <v>0.1069190590548497</v>
       </c>
       <c r="L208">
         <v>0.009235910830232459</v>
@@ -16246,13 +16246,13 @@
         <v>0.1343750000000341</v>
       </c>
       <c r="U208">
-        <v>1.000084148325448</v>
+        <v>8.414832544834105E-05</v>
       </c>
       <c r="V208">
-        <v>1.000093442224673</v>
+        <v>9.344222467255747E-05</v>
       </c>
       <c r="W208">
-        <v>0.9997199663959675</v>
+        <v>-0.0002800336040325035</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16287,7 +16287,7 @@
         <v>1.661656845017035</v>
       </c>
       <c r="K209">
-        <v>62.42941677954735</v>
+        <v>0.1242941677954734</v>
       </c>
       <c r="L209">
         <v>0.009519634759318224</v>
@@ -16317,13 +16317,13 @@
         <v>0.1218750000000171</v>
       </c>
       <c r="U209">
-        <v>1.000084141245104</v>
+        <v>8.414124510358612E-05</v>
       </c>
       <c r="V209">
-        <v>1.000112120192847</v>
+        <v>0.0001121201928468984</v>
       </c>
       <c r="W209">
-        <v>1.000280112044818</v>
+        <v>0.0002801120448179262</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16358,7 +16358,7 @@
         <v>1.661656845017036</v>
       </c>
       <c r="K210">
-        <v>62.42941677954735</v>
+        <v>0.1242941677954734</v>
       </c>
       <c r="L210">
         <v>0.009697645898038169</v>
@@ -16388,13 +16388,13 @@
         <v>0.1156250000000227</v>
       </c>
       <c r="U210">
-        <v>1.000065437684628</v>
+        <v>6.543768462763389E-05</v>
       </c>
       <c r="V210">
-        <v>1.000130792227205</v>
+        <v>0.0001307922272046902</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16429,7 +16429,7 @@
         <v>1.470022097033228</v>
       </c>
       <c r="K211">
-        <v>59.51453223025366</v>
+        <v>0.09514532230253669</v>
       </c>
       <c r="L211">
         <v>0.00966277654702675</v>
@@ -16459,13 +16459,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U211">
-        <v>1.000037390515896</v>
+        <v>3.739051589568554E-05</v>
       </c>
       <c r="V211">
-        <v>1.00011209296243</v>
+        <v>0.0001120929624303102</v>
       </c>
       <c r="W211">
-        <v>0.9997199663959675</v>
+        <v>-0.0002800336040325035</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16500,7 +16500,7 @@
         <v>1.470022097033228</v>
       </c>
       <c r="K212">
-        <v>59.51453223025366</v>
+        <v>0.09514532230253669</v>
       </c>
       <c r="L212">
         <v>0.009465972259220932</v>
@@ -16530,13 +16530,13 @@
         <v>0.078125</v>
       </c>
       <c r="U212">
-        <v>1.00006543095632</v>
+        <v>6.543095632016716E-05</v>
       </c>
       <c r="V212">
-        <v>1.000112080399006</v>
+        <v>0.0001120803990060093</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16571,7 +16571,7 @@
         <v>1.303457539026583</v>
       </c>
       <c r="K213">
-        <v>56.5870009298027</v>
+        <v>0.065870009298027</v>
       </c>
       <c r="L213">
         <v>0.00904702612670559</v>
@@ -16601,13 +16601,13 @@
         <v>0.05000000000003979</v>
       </c>
       <c r="U213">
-        <v>1.000037386671651</v>
+        <v>3.738667165142928E-05</v>
       </c>
       <c r="V213">
-        <v>1.000093389865332</v>
+        <v>9.338986533191651E-05</v>
       </c>
       <c r="W213">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16642,7 +16642,7 @@
         <v>1.303457539026583</v>
       </c>
       <c r="K214">
-        <v>56.5870009298027</v>
+        <v>0.065870009298027</v>
       </c>
       <c r="L214">
         <v>0.008487291059513218</v>
@@ -16672,13 +16672,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U214">
-        <v>1.000037385273941</v>
+        <v>3.738527394059332E-05</v>
       </c>
       <c r="V214">
-        <v>1.000056028686688</v>
+        <v>5.602868668752592E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16713,7 +16713,7 @@
         <v>1.554554536025264</v>
       </c>
       <c r="K215">
-        <v>60.85423169098043</v>
+        <v>0.1085423169098043</v>
       </c>
       <c r="L215">
         <v>0.008051243461519893</v>
@@ -16743,13 +16743,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U215">
-        <v>1.000065421783585</v>
+        <v>6.542178358492912E-05</v>
       </c>
       <c r="V215">
-        <v>1.00009337591275</v>
+        <v>9.337591274971579E-05</v>
       </c>
       <c r="W215">
-        <v>1.00056038105912</v>
+        <v>0.0005603810591203739</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16784,7 +16784,7 @@
         <v>2.347492421284034</v>
       </c>
       <c r="K216">
-        <v>70.1268927857223</v>
+        <v>0.2012689278572231</v>
       </c>
       <c r="L216">
         <v>0.008301078749518132</v>
@@ -16814,13 +16814,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U216">
-        <v>1.000149525723097</v>
+        <v>0.0001495257230970104</v>
       </c>
       <c r="V216">
-        <v>1.000130714072304</v>
+        <v>0.0001307140723036948</v>
       </c>
       <c r="W216">
-        <v>1.001680201624195</v>
+        <v>0.001680201624194799</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16855,7 +16855,7 @@
         <v>2.486604330978595</v>
       </c>
       <c r="K217">
-        <v>71.31879889223544</v>
+        <v>0.2131879889223544</v>
       </c>
       <c r="L217">
         <v>0.009022171125097102</v>
@@ -16885,13 +16885,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U217">
-        <v>1.000158847329029</v>
+        <v>0.0001588473290288217</v>
       </c>
       <c r="V217">
-        <v>1.000168038985044</v>
+        <v>0.0001680389850442499</v>
       </c>
       <c r="W217">
-        <v>1.000279563880347</v>
+        <v>0.0002795638803467781</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16926,7 +16926,7 @@
         <v>2.168991169229028</v>
       </c>
       <c r="K218">
-        <v>68.44421626320637</v>
+        <v>0.1844421626320637</v>
       </c>
       <c r="L218">
         <v>0.009847677185510847</v>
@@ -16956,13 +16956,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U218">
-        <v>1.000158822100563</v>
+        <v>0.0001588221005626167</v>
       </c>
       <c r="V218">
-        <v>1.000130675029869</v>
+        <v>0.0001306750298688542</v>
       </c>
       <c r="W218">
-        <v>0.999720514253773</v>
+        <v>-0.0002794857462270484</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16997,7 +16997,7 @@
         <v>1.911928064676529</v>
       </c>
       <c r="K219">
-        <v>65.65849231886554</v>
+        <v>0.1565849231886554</v>
       </c>
       <c r="L219">
         <v>0.01054574797952802</v>
@@ -17027,13 +17027,13 @@
         <v>0.07187500000003411</v>
       </c>
       <c r="U219">
-        <v>1.000130773901266</v>
+        <v>0.0001307739012657017</v>
       </c>
       <c r="V219">
-        <v>1.000111992533831</v>
+        <v>0.0001119925338308736</v>
       </c>
       <c r="W219">
-        <v>0.9997204361196534</v>
+        <v>-0.0002795638803465561</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17068,7 +17068,7 @@
         <v>2.03668317916157</v>
       </c>
       <c r="K220">
-        <v>67.06933384219224</v>
+        <v>0.1706933384219224</v>
       </c>
       <c r="L220">
         <v>0.01118566104076621</v>
@@ -17098,13 +17098,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U220">
-        <v>1.000121417030139</v>
+        <v>0.000121417030139126</v>
       </c>
       <c r="V220">
-        <v>1.000111979992908</v>
+        <v>0.0001119799929081289</v>
       </c>
       <c r="W220">
-        <v>1.000279642058165</v>
+        <v>0.0002796420581654413</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17139,7 +17139,7 @@
         <v>2.03668317916157</v>
       </c>
       <c r="K221">
-        <v>67.06933384219224</v>
+        <v>0.1706933384219224</v>
       </c>
       <c r="L221">
         <v>0.01170869495300957</v>
@@ -17169,13 +17169,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U221">
-        <v>1.000130740927514</v>
+        <v>0.0001307409275137505</v>
       </c>
       <c r="V221">
-        <v>1.000130628697258</v>
+        <v>0.0001306286972584392</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17210,7 +17210,7 @@
         <v>1.59556445157306</v>
       </c>
       <c r="K222">
-        <v>61.47273478822908</v>
+        <v>0.1147273478822908</v>
       </c>
       <c r="L222">
         <v>0.01188079235655264</v>
@@ -17240,13 +17240,13 @@
         <v>0.1468749999999659</v>
       </c>
       <c r="U222">
-        <v>1.000102711585867</v>
+        <v>0.0001027115858669436</v>
       </c>
       <c r="V222">
-        <v>1.00007463522036</v>
+        <v>7.463522036044168E-05</v>
       </c>
       <c r="W222">
-        <v>0.9994408722393067</v>
+        <v>-0.0005591277606933343</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17281,7 +17281,7 @@
         <v>1.432292988520172</v>
       </c>
       <c r="K223">
-        <v>58.8865319795043</v>
+        <v>0.08886531979504297</v>
       </c>
       <c r="L223">
         <v>0.01168403603348876</v>
@@ -17311,13 +17311,13 @@
         <v>0.15625</v>
       </c>
       <c r="U223">
-        <v>1.000084028121411</v>
+        <v>8.402812141117266E-05</v>
       </c>
       <c r="V223">
-        <v>1.00007462965036</v>
+        <v>7.462965035998081E-05</v>
       </c>
       <c r="W223">
-        <v>0.9997202797202797</v>
+        <v>-0.0002797202797203413</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17352,7 +17352,7 @@
         <v>1.178426765854537</v>
       </c>
       <c r="K224">
-        <v>54.09531246703501</v>
+        <v>0.04095312467035006</v>
       </c>
       <c r="L224">
         <v>0.01102985757910368</v>
@@ -17382,13 +17382,13 @@
         <v>0.1187500000000341</v>
       </c>
       <c r="U224">
-        <v>1.000065349714329</v>
+        <v>6.53497143285886E-05</v>
       </c>
       <c r="V224">
-        <v>1.000018656020298</v>
+        <v>1.865602029793578E-05</v>
       </c>
       <c r="W224">
-        <v>0.9994404029099049</v>
+        <v>-0.0005595970900951208</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17423,7 +17423,7 @@
         <v>1.077875391485367</v>
       </c>
       <c r="K225">
-        <v>51.87391871053676</v>
+        <v>0.01873918710536759</v>
       </c>
       <c r="L225">
         <v>0.009998217526336966</v>
@@ -17453,13 +17453,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U225">
-        <v>1.000065345444022</v>
+        <v>6.534544402225784E-05</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W225">
-        <v>0.9997200447928333</v>
+        <v>-0.0002799552071667266</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17494,7 +17494,7 @@
         <v>1.167693066231404</v>
       </c>
       <c r="K226">
-        <v>53.86800762625825</v>
+        <v>0.03868007626258252</v>
       </c>
       <c r="L226">
         <v>0.008869341010269319</v>
@@ -17524,13 +17524,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U226">
-        <v>1.000074675627742</v>
+        <v>7.467562774188252E-05</v>
       </c>
       <c r="V226">
-        <v>1.000037311344514</v>
+        <v>3.731134451423479E-05</v>
       </c>
       <c r="W226">
-        <v>1.000280033604032</v>
+        <v>0.0002800336040322815</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17565,7 +17565,7 @@
         <v>1.26223798701676</v>
       </c>
       <c r="K227">
-        <v>55.79598584502986</v>
+        <v>0.05795985845029861</v>
       </c>
       <c r="L227">
         <v>0.007823222017176548</v>
@@ -17595,13 +17595,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U227">
-        <v>1.000084003808173</v>
+        <v>8.400380817263908E-05</v>
       </c>
       <c r="V227">
-        <v>1.000055964928645</v>
+        <v>5.596492864468061E-05</v>
       </c>
       <c r="W227">
-        <v>1.000279955207167</v>
+        <v>0.0002799552071668376</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17636,7 +17636,7 @@
         <v>1.147989008231778</v>
       </c>
       <c r="K228">
-        <v>53.44482694428689</v>
+        <v>0.03444826944286883</v>
       </c>
       <c r="L228">
         <v>0.006763463402780228</v>
@@ -17666,13 +17666,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U228">
-        <v>1.000074663779667</v>
+        <v>7.466377966736104E-05</v>
       </c>
       <c r="V228">
-        <v>1.000055961796747</v>
+        <v>5.59617967466064E-05</v>
       </c>
       <c r="W228">
-        <v>0.9997201231458158</v>
+        <v>-0.0002798768541841801</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17707,7 +17707,7 @@
         <v>1.243265876911506</v>
       </c>
       <c r="K229">
-        <v>55.42213652459312</v>
+        <v>0.05422136524593124</v>
       </c>
       <c r="L229">
         <v>0.005840328703799977</v>
@@ -17737,13 +17737,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U229">
-        <v>1.000065325929728</v>
+        <v>6.532592972785523E-05</v>
       </c>
       <c r="V229">
-        <v>1.000074611553599</v>
+        <v>7.461155359922422E-05</v>
       </c>
       <c r="W229">
-        <v>1.000279955207167</v>
+        <v>0.0002799552071668376</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17778,7 +17778,7 @@
         <v>1.243265876911506</v>
       </c>
       <c r="K230">
-        <v>55.42213652459312</v>
+        <v>0.05422136524593124</v>
       </c>
       <c r="L230">
         <v>0.005037519956879859</v>
@@ -17808,13 +17808,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U230">
-        <v>1.000065321662529</v>
+        <v>6.532166252948279E-05</v>
       </c>
       <c r="V230">
-        <v>1.000037302993565</v>
+        <v>3.73029935651914E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17849,7 +17849,7 @@
         <v>1.243265876911505</v>
       </c>
       <c r="K231">
-        <v>55.42213652459311</v>
+        <v>0.05422136524593102</v>
       </c>
       <c r="L231">
         <v>0.004340419702126113</v>
@@ -17879,13 +17879,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U231">
-        <v>1.000027993169667</v>
+        <v>2.7993169666507E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999253967957923</v>
+        <v>-7.460320420771271E-05</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17920,7 +17920,7 @@
         <v>1.243265876911505</v>
       </c>
       <c r="K232">
-        <v>55.42213652459311</v>
+        <v>0.05422136524593102</v>
       </c>
       <c r="L232">
         <v>0.00373597505319157</v>
@@ -17950,13 +17950,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U232">
-        <v>1.000037323181428</v>
+        <v>3.732318142812829E-05</v>
       </c>
       <c r="V232">
-        <v>0.9999067390371739</v>
+        <v>-9.326096282613605E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17991,7 +17991,7 @@
         <v>1.113065088112099</v>
       </c>
       <c r="K233">
-        <v>52.67538110274484</v>
+        <v>0.02675381102744845</v>
       </c>
       <c r="L233">
         <v>0.003110640288953469</v>
@@ -18021,13 +18021,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U233">
-        <v>1.00001866089423</v>
+        <v>1.866089423008255E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999067303387553</v>
+        <v>-9.326966124467706E-05</v>
       </c>
       <c r="W233">
-        <v>0.9997201231458158</v>
+        <v>-0.0002798768541841801</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18062,7 +18062,7 @@
         <v>0.7175587397733431</v>
       </c>
       <c r="K234">
-        <v>41.77782821378414</v>
+        <v>-0.08222171786215859</v>
       </c>
       <c r="L234">
         <v>0.001991521710425983</v>
@@ -18092,13 +18092,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U234">
-        <v>0.9999720091809886</v>
+        <v>-2.7990819011392E-05</v>
       </c>
       <c r="V234">
-        <v>0.9998320989496858</v>
+        <v>-0.0001679010503141676</v>
       </c>
       <c r="W234">
-        <v>0.9986002239641657</v>
+        <v>-0.001399776035834299</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18133,7 +18133,7 @@
         <v>0.624174178623046</v>
       </c>
       <c r="K235">
-        <v>38.43024885127856</v>
+        <v>-0.1156975114872145</v>
       </c>
       <c r="L235">
         <v>0.0004334986680619447</v>
@@ -18163,13 +18163,13 @@
         <v>-0.07187500000003411</v>
       </c>
       <c r="U235">
-        <v>0.9999440167949614</v>
+        <v>-5.598320503863441E-05</v>
       </c>
       <c r="V235">
-        <v>0.9997760943389186</v>
+        <v>-0.0002239056610814361</v>
       </c>
       <c r="W235">
-        <v>0.999439304737875</v>
+        <v>-0.0005606952621249883</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18204,7 +18204,7 @@
         <v>0.8296616166633178</v>
       </c>
       <c r="K236">
-        <v>45.34508507514845</v>
+        <v>-0.04654914924851555</v>
       </c>
       <c r="L236">
         <v>-0.0009869376416728312</v>
@@ -18234,13 +18234,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U236">
-        <v>0.9999813378868889</v>
+        <v>-1.866211311107868E-05</v>
       </c>
       <c r="V236">
-        <v>0.9998320331454591</v>
+        <v>-0.0001679668545409019</v>
       </c>
       <c r="W236">
-        <v>1.000841514726508</v>
+        <v>0.0008415147265077305</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18275,7 +18275,7 @@
         <v>0.9017624721160175</v>
       </c>
       <c r="K237">
-        <v>47.41719774881567</v>
+        <v>-0.02582802251184324</v>
       </c>
       <c r="L237">
         <v>-0.002128028580895799</v>
@@ -18305,13 +18305,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U237">
-        <v>0.999981337538608</v>
+        <v>-1.866246139203831E-05</v>
       </c>
       <c r="V237">
-        <v>0.9998880032852371</v>
+        <v>-0.0001119967147629186</v>
       </c>
       <c r="W237">
-        <v>1.000280269058296</v>
+        <v>0.0002802690582959233</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18346,7 +18346,7 @@
         <v>0.9017624721160173</v>
       </c>
       <c r="K238">
-        <v>47.41719774881567</v>
+        <v>-0.02582802251184335</v>
       </c>
       <c r="L238">
         <v>-0.003019463790050002</v>
@@ -18376,13 +18376,13 @@
         <v>-0.07499999999996021</v>
       </c>
       <c r="U238">
-        <v>0.9999906685951572</v>
+        <v>-9.33140484282724E-06</v>
       </c>
       <c r="V238">
-        <v>0.9999066589504731</v>
+        <v>-9.334104952685163E-05</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18417,7 +18417,7 @@
         <v>0.7274211335909531</v>
       </c>
       <c r="K239">
-        <v>42.11023701434023</v>
+        <v>-0.07889762985659771</v>
       </c>
       <c r="L239">
         <v>-0.003997690689281615</v>
@@ -18447,13 +18447,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U239">
-        <v>0.9999533425404052</v>
+        <v>-4.665745959475665E-05</v>
       </c>
       <c r="V239">
-        <v>0.9998879802845302</v>
+        <v>-0.0001120197154698133</v>
       </c>
       <c r="W239">
-        <v>0.9991594284113198</v>
+        <v>-0.0008405715886802279</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18488,7 +18488,7 @@
         <v>0.7952576219945167</v>
       </c>
       <c r="K240">
-        <v>44.29768810066334</v>
+        <v>-0.05702311899336654</v>
       </c>
       <c r="L240">
         <v>-0.004849734340343517</v>
@@ -18518,13 +18518,13 @@
         <v>-0.1156250000000227</v>
       </c>
       <c r="U240">
-        <v>0.9999626722907082</v>
+        <v>-3.732770929176787E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999253118231383</v>
+        <v>-7.46881768617369E-05</v>
       </c>
       <c r="W240">
-        <v>1.000280426247897</v>
+        <v>0.0002804262478968145</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18559,7 +18559,7 @@
         <v>0.6549532220411798</v>
       </c>
       <c r="K241">
-        <v>39.57533139416328</v>
+        <v>-0.1042466860583672</v>
       </c>
       <c r="L241">
         <v>-0.005859266717261544</v>
@@ -18589,13 +18589,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U241">
-        <v>0.9999440063459474</v>
+        <v>-5.59936540526218E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998506124887959</v>
+        <v>-0.0001493875112040799</v>
       </c>
       <c r="W241">
-        <v>0.9991589571068125</v>
+        <v>-0.000841042893187538</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18630,7 +18630,7 @@
         <v>0.6549532220411798</v>
       </c>
       <c r="K242">
-        <v>39.57533139416328</v>
+        <v>-0.1042466860583672</v>
       </c>
       <c r="L242">
         <v>-0.006878655781066174</v>
@@ -18660,13 +18660,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U242">
-        <v>0.9999440032104826</v>
+        <v>-5.59967895173985E-05</v>
       </c>
       <c r="V242">
-        <v>0.9998319139399372</v>
+        <v>-0.0001680860600627998</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18701,7 +18701,7 @@
         <v>0.720115309020657</v>
       </c>
       <c r="K243">
-        <v>41.86436253687275</v>
+        <v>-0.08135637463127243</v>
       </c>
       <c r="L243">
         <v>-0.007712167144153481</v>
@@ -18731,13 +18731,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U243">
-        <v>0.9999626667164444</v>
+        <v>-3.733328355559618E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998692444195387</v>
+        <v>-0.0001307555804612726</v>
       </c>
       <c r="W243">
-        <v>1.000280583613917</v>
+        <v>0.0002805836139170292</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18772,7 +18772,7 @@
         <v>0.7887069795253699</v>
       </c>
       <c r="K244">
-        <v>44.09369385558343</v>
+        <v>-0.05906306144416568</v>
       </c>
       <c r="L244">
         <v>-0.00824998679210451</v>
@@ -18802,13 +18802,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U244">
-        <v>0.9999719989919638</v>
+        <v>-2.800100803623806E-05</v>
       </c>
       <c r="V244">
-        <v>0.9998692273202808</v>
+        <v>-0.0001307726797191711</v>
       </c>
       <c r="W244">
-        <v>1.000280504908836</v>
+        <v>0.0002805049088359102</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18843,7 +18843,7 @@
         <v>0.735595678077592</v>
       </c>
       <c r="K245">
-        <v>42.38289409042341</v>
+        <v>-0.07617105909576588</v>
       </c>
       <c r="L245">
         <v>-0.008646365416303004</v>
@@ -18873,13 +18873,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U245">
-        <v>0.9999439964157707</v>
+        <v>-5.600358422930274E-05</v>
       </c>
       <c r="V245">
-        <v>0.999850525961772</v>
+        <v>-0.0001494740382279591</v>
       </c>
       <c r="W245">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18914,7 +18914,7 @@
         <v>0.9482474025617237</v>
       </c>
       <c r="K246">
-        <v>48.67181659346171</v>
+        <v>-0.01328183406538291</v>
       </c>
       <c r="L246">
         <v>-0.008594417815198721</v>
@@ -18944,13 +18944,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U246">
-        <v>0.9999159899187902</v>
+        <v>-8.401008120983988E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999065647599651</v>
+        <v>-9.343524003491144E-05</v>
       </c>
       <c r="W246">
-        <v>1.000841514726508</v>
+        <v>0.0008415147265077305</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18985,7 +18985,7 @@
         <v>1.097476682901451</v>
       </c>
       <c r="K247">
-        <v>52.32366547137514</v>
+        <v>0.02323665471375136</v>
       </c>
       <c r="L247">
         <v>-0.008038841776254675</v>
@@ -19015,13 +19015,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U247">
-        <v>0.9999253180982255</v>
+        <v>-7.468190177450929E-05</v>
       </c>
       <c r="V247">
-        <v>0.9999439336174029</v>
+        <v>-5.606638259714192E-05</v>
       </c>
       <c r="W247">
-        <v>1.000560538116592</v>
+        <v>0.0005605381165918466</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19056,7 +19056,7 @@
         <v>0.8881954666543259</v>
       </c>
       <c r="K248">
-        <v>47.03938137443526</v>
+        <v>-0.02960618625564743</v>
       </c>
       <c r="L248">
         <v>-0.007490178623238181</v>
@@ -19086,13 +19086,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U248">
-        <v>0.9999066406505279</v>
+        <v>-9.335934947207747E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999065507896457</v>
+        <v>-9.344921035425724E-05</v>
       </c>
       <c r="W248">
-        <v>0.9991596638655462</v>
+        <v>-0.0008403361344537785</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19127,7 +19127,7 @@
         <v>0.8881954666543258</v>
       </c>
       <c r="K249">
-        <v>47.03938137443526</v>
+        <v>-0.02960618625564743</v>
       </c>
       <c r="L249">
         <v>-0.006953390686014591</v>
@@ -19157,13 +19157,13 @@
         <v>-0.009375000000034106</v>
       </c>
       <c r="U249">
-        <v>0.9999159687403714</v>
+        <v>-8.403125962863633E-05</v>
       </c>
       <c r="V249">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19198,7 +19198,7 @@
         <v>0.8881954666543259</v>
       </c>
       <c r="K250">
-        <v>47.03938137443526</v>
+        <v>-0.02960618625564743</v>
       </c>
       <c r="L250">
         <v>-0.006432681882451095</v>
@@ -19228,13 +19228,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U250">
-        <v>0.9999066240872505</v>
+        <v>-9.337591274949375E-05</v>
       </c>
       <c r="V250">
-        <v>1.00003738317757</v>
+        <v>3.738317756996068E-05</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19269,7 +19269,7 @@
         <v>0.7735030038954025</v>
       </c>
       <c r="K251">
-        <v>43.61441746624874</v>
+        <v>-0.06385582533751261</v>
       </c>
       <c r="L251">
         <v>-0.006135512389688712</v>
@@ -19299,13 +19299,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U251">
-        <v>0.9998879384408501</v>
+        <v>-0.0001120615591498897</v>
       </c>
       <c r="V251">
-        <v>0.9999439273298193</v>
+        <v>-5.607267018070683E-05</v>
       </c>
       <c r="W251">
-        <v>0.999439304737875</v>
+        <v>-0.0005606952621249883</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19340,7 +19340,7 @@
         <v>0.8414660326992346</v>
       </c>
       <c r="K252">
-        <v>45.6954414448692</v>
+        <v>-0.04304558555130805</v>
       </c>
       <c r="L252">
         <v>-0.005868378212834817</v>
@@ -19370,13 +19370,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U252">
-        <v>0.9999159444112373</v>
+        <v>-8.405558876267705E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999439241854988</v>
+        <v>-5.607581450117749E-05</v>
       </c>
       <c r="W252">
-        <v>1.000280504908836</v>
+        <v>0.0002805049088359102</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19411,7 +19411,7 @@
         <v>0.8414660326992345</v>
       </c>
       <c r="K253">
-        <v>45.6954414448692</v>
+        <v>-0.04304558555130805</v>
       </c>
       <c r="L253">
         <v>-0.005615104907354731</v>
@@ -19441,13 +19441,13 @@
         <v>0.03125</v>
       </c>
       <c r="U253">
-        <v>0.999925277640268</v>
+        <v>-7.472235973204899E-05</v>
       </c>
       <c r="V253">
-        <v>0.9999439210408255</v>
+        <v>-5.607895917447703E-05</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19482,7 +19482,7 @@
         <v>0.7825368633023604</v>
       </c>
       <c r="K254">
-        <v>43.9001784149708</v>
+        <v>-0.06099821585029197</v>
       </c>
       <c r="L254">
         <v>-0.00546796857888041</v>
@@ -19512,13 +19512,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U254">
-        <v>0.999934613049367</v>
+        <v>-6.538695063296185E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999813059652665</v>
+        <v>-1.869403473353515E-05</v>
       </c>
       <c r="W254">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19553,7 +19553,7 @@
         <v>0.7825368633023603</v>
       </c>
       <c r="K255">
-        <v>43.9001784149708</v>
+        <v>-0.06099821585029203</v>
       </c>
       <c r="L255">
         <v>-0.005374623050804255</v>
@@ -19583,13 +19583,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U255">
-        <v>0.9999439503774008</v>
+        <v>-5.604962259919688E-05</v>
       </c>
       <c r="V255">
-        <v>0.999962611231586</v>
+        <v>-3.738876841397065E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19624,7 +19624,7 @@
         <v>0.6347680367890906</v>
       </c>
       <c r="K256">
-        <v>38.82924197832143</v>
+        <v>-0.1117075802167857</v>
       </c>
       <c r="L256">
         <v>-0.005606412644620818</v>
@@ -19654,13 +19654,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U256">
-        <v>0.9999065787261076</v>
+        <v>-9.34212738924467E-05</v>
       </c>
       <c r="V256">
-        <v>0.9999626098336138</v>
+        <v>-3.739016638615311E-05</v>
       </c>
       <c r="W256">
-        <v>0.9991584852734923</v>
+        <v>-0.0008415147265077305</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19695,7 +19695,7 @@
         <v>0.5953235574749247</v>
       </c>
       <c r="K257">
-        <v>37.31679098484585</v>
+        <v>-0.1268320901515416</v>
       </c>
       <c r="L257">
         <v>-0.006102123245417148</v>
@@ -19725,13 +19725,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U257">
-        <v>0.9998878839973092</v>
+        <v>-0.0001121160026907875</v>
       </c>
       <c r="V257">
-        <v>0.9999439126533053</v>
+        <v>-5.608734669471094E-05</v>
       </c>
       <c r="W257">
-        <v>0.9997192588433466</v>
+        <v>-0.0002807411566534412</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19766,7 +19766,7 @@
         <v>0.5953235574749246</v>
       </c>
       <c r="K258">
-        <v>37.31679098484584</v>
+        <v>-0.1268320901515416</v>
       </c>
       <c r="L258">
         <v>-0.006704007450111319</v>
@@ -19796,13 +19796,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U258">
-        <v>0.9998972154737431</v>
+        <v>-0.0001027845262568938</v>
       </c>
       <c r="V258">
-        <v>0.9999252126764514</v>
+        <v>-7.478732354859741E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19837,7 +19837,7 @@
         <v>0.8707362545289048</v>
       </c>
       <c r="K259">
-        <v>46.54511037677926</v>
+        <v>-0.03454889623220742</v>
       </c>
       <c r="L259">
         <v>-0.006899261399581479</v>
@@ -19867,13 +19867,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U259">
-        <v>0.9999252399330898</v>
+        <v>-7.476006691020665E-05</v>
       </c>
       <c r="V259">
-        <v>0.9999813017707223</v>
+        <v>-1.86982292776916E-05</v>
       </c>
       <c r="W259">
-        <v>1.001123279977534</v>
+        <v>0.001123279977534253</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19908,7 +19908,7 @@
         <v>0.9432132800694464</v>
       </c>
       <c r="K260">
-        <v>48.53884489898802</v>
+        <v>-0.01461155101011974</v>
       </c>
       <c r="L260">
         <v>-0.006708505486040101</v>
@@ -19938,13 +19938,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U260">
-        <v>0.9999345800506536</v>
+        <v>-6.541994934639028E-05</v>
       </c>
       <c r="V260">
-        <v>1.000018698578908</v>
+        <v>1.869857890790527E-05</v>
       </c>
       <c r="W260">
-        <v>1.000280504908836</v>
+        <v>0.0002805049088359102</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19979,7 +19979,7 @@
         <v>1.019504885901552</v>
       </c>
       <c r="K261">
-        <v>50.48291257024727</v>
+        <v>0.004829125702472625</v>
       </c>
       <c r="L261">
         <v>-0.006169490519595343</v>
@@ -20009,13 +20009,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U261">
-        <v>0.9999439220890893</v>
+        <v>-5.607791091066794E-05</v>
       </c>
       <c r="V261">
-        <v>0.9999813017707223</v>
+        <v>-1.86982292776916E-05</v>
       </c>
       <c r="W261">
-        <v>1.000280426247897</v>
+        <v>0.0002804262478968145</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20050,7 +20050,7 @@
         <v>1.019504885901552</v>
       </c>
       <c r="K262">
-        <v>50.48291257024727</v>
+        <v>0.004829125702472625</v>
       </c>
       <c r="L262">
         <v>-0.005431310958646361</v>
@@ -20080,13 +20080,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U262">
-        <v>0.9999439189441804</v>
+        <v>-5.60810558195568E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999439042632761</v>
+        <v>-5.609573672393786E-05</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20121,7 +20121,7 @@
         <v>1.019504885901553</v>
       </c>
       <c r="K263">
-        <v>50.48291257024727</v>
+        <v>0.004829125702472625</v>
       </c>
       <c r="L263">
         <v>-0.004599689951285751</v>
@@ -20151,13 +20151,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U263">
-        <v>0.9999532631657664</v>
+        <v>-4.67368342336183E-05</v>
       </c>
       <c r="V263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20192,7 +20192,7 @@
         <v>0.9361992772257574</v>
       </c>
       <c r="K264">
-        <v>48.35242364965505</v>
+        <v>-0.01647576350344948</v>
       </c>
       <c r="L264">
         <v>-0.003849775891855658</v>
@@ -20222,13 +20222,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U264">
-        <v>0.9999906521962665</v>
+        <v>-9.347803733517068E-06</v>
       </c>
       <c r="V264">
-        <v>0.9999813003721223</v>
+        <v>-1.869962787770518E-05</v>
       </c>
       <c r="W264">
-        <v>0.9997196523689376</v>
+        <v>-0.0002803476310624387</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20263,7 +20263,7 @@
         <v>0.9361992772257574</v>
       </c>
       <c r="K265">
-        <v>48.35242364965505</v>
+        <v>-0.01647576350344948</v>
       </c>
       <c r="L265">
         <v>-0.003183128873023131</v>
@@ -20293,13 +20293,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U265">
-        <v>1.000009347891116</v>
+        <v>9.347891115618623E-06</v>
       </c>
       <c r="V265">
-        <v>0.9999813000224401</v>
+        <v>-1.869997755987729E-05</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20334,7 +20334,7 @@
         <v>0.9361992772257572</v>
       </c>
       <c r="K266">
-        <v>48.35242364965505</v>
+        <v>-0.01647576350344948</v>
       </c>
       <c r="L266">
         <v>-0.002597817112433423</v>
@@ -20364,13 +20364,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U266">
-        <v>0.999981304392533</v>
+        <v>-1.869560746703414E-05</v>
       </c>
       <c r="V266">
-        <v>1.000018700327256</v>
+        <v>1.870032725581616E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20405,7 +20405,7 @@
         <v>0.9361992772257574</v>
       </c>
       <c r="K267">
-        <v>48.35242364965505</v>
+        <v>-0.01647576350344948</v>
       </c>
       <c r="L267">
         <v>-0.002089619521715314</v>
@@ -20435,13 +20435,13 @@
         <v>0.0625</v>
       </c>
       <c r="U267">
-        <v>0.9999719560645013</v>
+        <v>-2.804393549871165E-05</v>
       </c>
       <c r="V267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20476,7 +20476,7 @@
         <v>0.9361992772257572</v>
       </c>
       <c r="K268">
-        <v>48.35242364965505</v>
+        <v>-0.01647576350344948</v>
       </c>
       <c r="L268">
         <v>-0.001652915789708266</v>
@@ -20506,13 +20506,13 @@
         <v>0.0625</v>
       </c>
       <c r="U268">
-        <v>0.9999719552780165</v>
+        <v>-2.804472198347785E-05</v>
       </c>
       <c r="V268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20547,7 +20547,7 @@
         <v>0.9361992772257574</v>
       </c>
       <c r="K269">
-        <v>48.35242364965505</v>
+        <v>-0.01647576350344948</v>
       </c>
       <c r="L269">
         <v>-0.001281335442432718</v>
@@ -20577,13 +20577,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U269">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V269">
-        <v>1.00001869997756</v>
+        <v>1.869997755976627E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20618,7 +20618,7 @@
         <v>0.8425432944894563</v>
       </c>
       <c r="K270">
-        <v>45.72719116067846</v>
+        <v>-0.0427280883932154</v>
       </c>
       <c r="L270">
         <v>-0.001070336395218449</v>
@@ -20648,13 +20648,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U270">
-        <v>0.9999813029943253</v>
+        <v>-1.86970056746949E-05</v>
       </c>
       <c r="V270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W270">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20689,7 +20689,7 @@
         <v>0.8425432944894563</v>
       </c>
       <c r="K271">
-        <v>45.72719116067846</v>
+        <v>-0.0427280883932154</v>
       </c>
       <c r="L271">
         <v>-0.0009661742542585404</v>
@@ -20719,13 +20719,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U271">
-        <v>1.00000934867763</v>
+        <v>9.348677629805735E-06</v>
       </c>
       <c r="V271">
-        <v>1.000056098883632</v>
+        <v>5.609888363222737E-05</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20760,7 +20760,7 @@
         <v>0.8425432944894564</v>
       </c>
       <c r="K272">
-        <v>45.72719116067846</v>
+        <v>-0.0427280883932154</v>
       </c>
       <c r="L272">
         <v>-0.000929858727321687</v>
@@ -20790,13 +20790,13 @@
         <v>0.015625</v>
       </c>
       <c r="U272">
-        <v>1.000009348590233</v>
+        <v>9.348590232605147E-06</v>
       </c>
       <c r="V272">
-        <v>1.000074794315632</v>
+        <v>7.479431563184313E-05</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20831,7 +20831,7 @@
         <v>0.8425432944894563</v>
       </c>
       <c r="K273">
-        <v>45.72719116067846</v>
+        <v>-0.0427280883932154</v>
       </c>
       <c r="L273">
         <v>-0.0009335765095249492</v>
@@ -20861,13 +20861,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V273">
-        <v>1.000074788721861</v>
+        <v>7.478872186061913E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20902,7 +20902,7 @@
         <v>0.8425432944894562</v>
       </c>
       <c r="K274">
-        <v>45.72719116067845</v>
+        <v>-0.04272808839321551</v>
       </c>
       <c r="L274">
         <v>-0.0009579126170196833</v>
@@ -20932,13 +20932,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U274">
-        <v>0.9999906514971627</v>
+        <v>-9.348502837291939E-06</v>
       </c>
       <c r="V274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20973,7 +20973,7 @@
         <v>0.8425432944894562</v>
       </c>
       <c r="K275">
-        <v>45.72719116067845</v>
+        <v>-0.04272808839321551</v>
       </c>
       <c r="L275">
         <v>-0.0009897022506854796</v>
@@ -21003,13 +21003,13 @@
         <v>-0.02812499999996021</v>
       </c>
       <c r="U275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V275">
-        <v>0.9999813042177685</v>
+        <v>-1.869578223145929E-05</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21044,7 +21044,7 @@
         <v>0.8425432944894561</v>
       </c>
       <c r="K276">
-        <v>45.72719116067845</v>
+        <v>-0.04272808839321551</v>
       </c>
       <c r="L276">
         <v>-0.00102037894193435</v>
@@ -21074,13 +21074,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U276">
-        <v>0.9999719542293021</v>
+        <v>-2.804577069792646E-05</v>
       </c>
       <c r="V276">
-        <v>0.9999626077364594</v>
+        <v>-3.739226354060321E-05</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21115,7 +21115,7 @@
         <v>0.7369704844090661</v>
       </c>
       <c r="K277">
-        <v>42.42849783712879</v>
+        <v>-0.07571502162871213</v>
       </c>
       <c r="L277">
         <v>-0.00114683317074276</v>
@@ -21145,13 +21145,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U277">
-        <v>0.9999439068854297</v>
+        <v>-5.60931145703325E-05</v>
       </c>
       <c r="V277">
-        <v>0.9999439095073386</v>
+        <v>-5.60904926614203E-05</v>
       </c>
       <c r="W277">
-        <v>0.999719495091164</v>
+        <v>-0.0002805049088360212</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21186,7 +21186,7 @@
         <v>0.868867888964604</v>
       </c>
       <c r="K278">
-        <v>46.49166985505738</v>
+        <v>-0.03508330144942617</v>
       </c>
       <c r="L278">
         <v>-0.001216960288522766</v>
@@ -21216,13 +21216,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U278">
-        <v>0.9999813012462722</v>
+        <v>-1.869875372784158E-05</v>
       </c>
       <c r="V278">
-        <v>0.9999626042406792</v>
+        <v>-3.739575932082406E-05</v>
       </c>
       <c r="W278">
-        <v>1.000280583613917</v>
+        <v>0.0002805836139170292</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21257,7 +21257,7 @@
         <v>0.6133828271677236</v>
       </c>
       <c r="K279">
-        <v>38.01843039599664</v>
+        <v>-0.1198156960400336</v>
       </c>
       <c r="L279">
         <v>-0.001550434072132777</v>
@@ -21287,13 +21287,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U279">
-        <v>0.9999532522415551</v>
+        <v>-4.674775844493162E-05</v>
       </c>
       <c r="V279">
-        <v>0.999925205684368</v>
+        <v>-7.479431563195416E-05</v>
       </c>
       <c r="W279">
-        <v>0.9991584852734923</v>
+        <v>-0.0008415147265077305</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21328,7 +21328,7 @@
         <v>0.5084632624363005</v>
       </c>
       <c r="K280">
-        <v>33.70736796168889</v>
+        <v>-0.1629263203831111</v>
       </c>
       <c r="L280">
         <v>-0.002220820778177041</v>
@@ -21358,13 +21358,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U280">
-        <v>0.9999345500785398</v>
+        <v>-6.544992146018114E-05</v>
       </c>
       <c r="V280">
-        <v>0.9998878001346396</v>
+        <v>-0.000112199865360374</v>
       </c>
       <c r="W280">
-        <v>0.9994385176866929</v>
+        <v>-0.0005614823133071045</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21399,7 +21399,7 @@
         <v>0.4308815804353459</v>
       </c>
       <c r="K281">
-        <v>30.113014684573</v>
+        <v>-0.19886985315427</v>
       </c>
       <c r="L281">
         <v>-0.003248803520733581</v>
@@ -21429,13 +21429,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U281">
-        <v>0.9999345457945673</v>
+        <v>-6.54542054326912E-05</v>
       </c>
       <c r="V281">
-        <v>0.9998503833925565</v>
+        <v>-0.0001496166074435035</v>
       </c>
       <c r="W281">
-        <v>0.999438202247191</v>
+        <v>-0.0005617977528089568</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21470,7 +21470,7 @@
         <v>0.5914928466864416</v>
       </c>
       <c r="K282">
-        <v>37.16591299282028</v>
+        <v>-0.1283408700717972</v>
       </c>
       <c r="L282">
         <v>-0.004211902266117917</v>
@@ -21500,13 +21500,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U282">
-        <v>0.9999438927228861</v>
+        <v>-5.610727711391483E-05</v>
       </c>
       <c r="V282">
-        <v>0.9998877707530583</v>
+        <v>-0.000112229246941653</v>
       </c>
       <c r="W282">
-        <v>1.000562113546936</v>
+        <v>0.0005621135469364713</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21541,7 +21541,7 @@
         <v>0.5914928466864418</v>
       </c>
       <c r="K283">
-        <v>37.16591299282029</v>
+        <v>-0.1283408700717971</v>
       </c>
       <c r="L283">
         <v>-0.005059043837492451</v>
@@ -21571,13 +21571,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U283">
-        <v>0.9999438895746831</v>
+        <v>-5.611042531694643E-05</v>
       </c>
       <c r="V283">
-        <v>0.9998877581562405</v>
+        <v>-0.0001122418437594641</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21612,7 +21612,7 @@
         <v>0.5914928466864418</v>
       </c>
       <c r="K284">
-        <v>37.16591299282029</v>
+        <v>-0.1283408700717971</v>
       </c>
       <c r="L284">
         <v>-0.00576358862995688</v>
@@ -21642,13 +21642,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U284">
-        <v>0.9999532386884388</v>
+        <v>-4.676131156122754E-05</v>
       </c>
       <c r="V284">
-        <v>0.9998877455565951</v>
+        <v>-0.0001122544434049022</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21683,7 +21683,7 @@
         <v>0.8724864601888956</v>
       </c>
       <c r="K285">
-        <v>46.59507444987771</v>
+        <v>-0.03404925550122284</v>
       </c>
       <c r="L285">
         <v>-0.006009473918626775</v>
@@ -21713,13 +21713,13 @@
         <v>-0.09687500000003979</v>
       </c>
       <c r="U285">
-        <v>0.9999812946006863</v>
+        <v>-1.870539931370097E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999625776513734</v>
+        <v>-3.742234862658123E-05</v>
       </c>
       <c r="W285">
-        <v>1.000842696629213</v>
+        <v>0.0008426966292134352</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21754,7 +21754,7 @@
         <v>0.9710807105405964</v>
       </c>
       <c r="K286">
-        <v>49.26641031732607</v>
+        <v>-0.007335896826739297</v>
       </c>
       <c r="L286">
         <v>-0.0058377630427726</v>
@@ -21784,13 +21784,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U286">
-        <v>1.000018705749212</v>
+        <v>1.87057492120335E-05</v>
       </c>
       <c r="V286">
-        <v>0.9999812881254444</v>
+        <v>-1.871187455559919E-05</v>
       </c>
       <c r="W286">
-        <v>1.000280662363177</v>
+        <v>0.0002806623631770311</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21825,7 +21825,7 @@
         <v>1.386214396232146</v>
       </c>
       <c r="K287">
-        <v>58.09261726108899</v>
+        <v>0.08092617261088986</v>
       </c>
       <c r="L287">
         <v>-0.004994063990166483</v>
@@ -21855,13 +21855,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U287">
-        <v>1.000065468897597</v>
+        <v>6.546889759739827E-05</v>
       </c>
       <c r="V287">
-        <v>1.000056136674089</v>
+        <v>5.61366740892133E-05</v>
       </c>
       <c r="W287">
-        <v>1.001122334455668</v>
+        <v>0.001122334455667895</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21896,7 +21896,7 @@
         <v>1.249691017763736</v>
       </c>
       <c r="K288">
-        <v>55.54945136447976</v>
+        <v>0.05549451364479763</v>
       </c>
       <c r="L288">
         <v>-0.003880886555182078</v>
@@ -21926,13 +21926,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U288">
-        <v>1.000056112524315</v>
+        <v>5.611252431547697E-05</v>
       </c>
       <c r="V288">
-        <v>1.000037422348627</v>
+        <v>3.742234862658123E-05</v>
       </c>
       <c r="W288">
-        <v>0.999719730941704</v>
+        <v>-0.0002802690582960343</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21967,7 +21967,7 @@
         <v>1.353360998273998</v>
       </c>
       <c r="K289">
-        <v>57.50758167856866</v>
+        <v>0.07507581678568653</v>
       </c>
       <c r="L289">
         <v>-0.002559039117610501</v>
@@ -21997,13 +21997,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U289">
-        <v>1.000028054687938</v>
+        <v>2.8054687938317E-05</v>
       </c>
       <c r="V289">
-        <v>1.00005613142237</v>
+        <v>5.613142237037572E-05</v>
       </c>
       <c r="W289">
-        <v>1.000280347631063</v>
+        <v>0.0002803476310626607</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22038,7 +22038,7 @@
         <v>1.462487293547896</v>
       </c>
       <c r="K290">
-        <v>59.39065340072384</v>
+        <v>0.09390653400723847</v>
       </c>
       <c r="L290">
         <v>-0.001083493477590126</v>
@@ -22068,13 +22068,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U290">
-        <v>1.000028053900895</v>
+        <v>2.805390089477555E-05</v>
       </c>
       <c r="V290">
-        <v>1.000074837695747</v>
+        <v>7.483769574734289E-05</v>
       </c>
       <c r="W290">
-        <v>1.000280269058296</v>
+        <v>0.0002802690582959233</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22109,7 +22109,7 @@
         <v>1.577357078046801</v>
       </c>
       <c r="K291">
-        <v>61.20056438753802</v>
+        <v>0.1120056438753803</v>
       </c>
       <c r="L291">
         <v>0.0004972499036503115</v>
@@ -22139,13 +22139,13 @@
         <v>0.1093749999999716</v>
       </c>
       <c r="U291">
-        <v>1.000028053113896</v>
+        <v>2.805311389564302E-05</v>
       </c>
       <c r="V291">
-        <v>1.000093540119357</v>
+        <v>9.354011935713835E-05</v>
       </c>
       <c r="W291">
-        <v>1.00028019052956</v>
+        <v>0.000280190529560187</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22180,7 +22180,7 @@
         <v>2.302850453829223</v>
       </c>
       <c r="K292">
-        <v>69.72312207352195</v>
+        <v>0.1972312207352195</v>
       </c>
       <c r="L292">
         <v>0.002652165905019696</v>
@@ -22210,13 +22210,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U292">
-        <v>1.000084156980822</v>
+        <v>8.415698082187006E-05</v>
       </c>
       <c r="V292">
-        <v>1.000224475289012</v>
+        <v>0.0002244752890119273</v>
       </c>
       <c r="W292">
-        <v>1.001680672268908</v>
+        <v>0.001680672268907557</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22251,7 +22251,7 @@
         <v>1.66651186502103</v>
       </c>
       <c r="K293">
-        <v>62.49782297548062</v>
+        <v>0.1249782297548062</v>
       </c>
       <c r="L293">
         <v>0.00470132015385442</v>
@@ -22281,13 +22281,13 @@
         <v>0.2093749999999943</v>
       </c>
       <c r="U293">
-        <v>1.00005609993268</v>
+        <v>5.609993267996494E-05</v>
       </c>
       <c r="V293">
-        <v>1.000149616607444</v>
+        <v>0.0001496166074435035</v>
       </c>
       <c r="W293">
-        <v>0.9991610738255033</v>
+        <v>-0.000838926174496657</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22322,7 +22322,7 @@
         <v>1.519213948576808</v>
       </c>
       <c r="K294">
-        <v>60.30507847239672</v>
+        <v>0.1030507847239671</v>
       </c>
       <c r="L294">
         <v>0.006436374496718767</v>
@@ -22352,13 +22352,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U294">
-        <v>1.000056096785654</v>
+        <v>5.609678565421383E-05</v>
       </c>
       <c r="V294">
-        <v>1.000186992782079</v>
+        <v>0.0001869927820785655</v>
       </c>
       <c r="W294">
-        <v>0.9997201231458158</v>
+        <v>-0.0002798768541841801</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22393,7 +22393,7 @@
         <v>1.280872078449107</v>
       </c>
       <c r="K295">
-        <v>56.15712036424436</v>
+        <v>0.06157120364244362</v>
       </c>
       <c r="L295">
         <v>0.007642677243208371</v>
@@ -22423,13 +22423,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U295">
-        <v>1.000037395759321</v>
+        <v>3.739575932093508E-05</v>
       </c>
       <c r="V295">
-        <v>1.000186957822315</v>
+        <v>0.000186957822315259</v>
       </c>
       <c r="W295">
-        <v>0.9994400895856663</v>
+        <v>-0.0005599104143336753</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22464,7 +22464,7 @@
         <v>1.026575764807593</v>
       </c>
       <c r="K296">
-        <v>50.65568150150349</v>
+        <v>0.006556815015034911</v>
       </c>
       <c r="L296">
         <v>0.008117432232074047</v>
@@ -22494,13 +22494,13 @@
         <v>0.203125</v>
       </c>
       <c r="U296">
-        <v>1.000009348590233</v>
+        <v>9.348590232605147E-06</v>
       </c>
       <c r="V296">
-        <v>1.000168230588059</v>
+        <v>0.0001682305880592594</v>
       </c>
       <c r="W296">
-        <v>0.9991596638655462</v>
+        <v>-0.0008403361344537785</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22535,7 +22535,7 @@
         <v>1.026575764807593</v>
       </c>
       <c r="K297">
-        <v>50.65568150150349</v>
+        <v>0.006556815015034911</v>
       </c>
       <c r="L297">
         <v>0.008089234252068304</v>
@@ -22565,13 +22565,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U297">
-        <v>1.000009348502837</v>
+        <v>9.348502837180916E-06</v>
       </c>
       <c r="V297">
-        <v>1.000130824004336</v>
+        <v>0.0001308240043358389</v>
       </c>
       <c r="W297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22606,7 +22606,7 @@
         <v>1.026575764807593</v>
       </c>
       <c r="K298">
-        <v>50.65568150150349</v>
+        <v>0.006556815015034911</v>
       </c>
       <c r="L298">
         <v>0.007728735916601937</v>
@@ -22636,13 +22636,13 @@
         <v>0.1343750000000341</v>
       </c>
       <c r="U298">
-        <v>1.000009348415444</v>
+        <v>9.348415443533042E-06</v>
       </c>
       <c r="V298">
-        <v>1.000130806891654</v>
+        <v>0.0001308068916543448</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22677,7 +22677,7 @@
         <v>1.026575764807593</v>
       </c>
       <c r="K299">
-        <v>50.6556815015035</v>
+        <v>0.006556815015035022</v>
       </c>
       <c r="L299">
         <v>0.007161805576824993</v>
@@ -22707,13 +22707,13 @@
         <v>0.09375</v>
       </c>
       <c r="U299">
-        <v>1.000009348328051</v>
+        <v>9.348328051439481E-06</v>
       </c>
       <c r="V299">
-        <v>1.00013078978345</v>
+        <v>0.000130789783449714</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22748,7 +22748,7 @@
         <v>0.949435011954092</v>
       </c>
       <c r="K300">
-        <v>48.70308608043255</v>
+        <v>-0.0129691391956745</v>
       </c>
       <c r="L300">
         <v>0.006377788364495256</v>
@@ -22778,13 +22778,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U300">
-        <v>1.000009348240661</v>
+        <v>9.348240661122276E-06</v>
       </c>
       <c r="V300">
-        <v>1.000056045434165</v>
+        <v>5.604543416515284E-05</v>
       </c>
       <c r="W300">
-        <v>0.9997196523689376</v>
+        <v>-0.0002803476310624387</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22819,7 +22819,7 @@
         <v>0.949435011954092</v>
       </c>
       <c r="K301">
-        <v>48.70308608043255</v>
+        <v>-0.0129691391956745</v>
       </c>
       <c r="L301">
         <v>0.005489045166671202</v>
@@ -22849,13 +22849,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U301">
-        <v>1.000009348153272</v>
+        <v>9.348153272359383E-06</v>
       </c>
       <c r="V301">
-        <v>1.000037361528834</v>
+        <v>3.73615288338236E-05</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22890,7 +22890,7 @@
         <v>1.032696785052009</v>
       </c>
       <c r="K302">
-        <v>50.8042710868747</v>
+        <v>0.008042710868746972</v>
       </c>
       <c r="L302">
         <v>0.004675642393048452</v>
@@ -22920,13 +22920,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U302">
-        <v>1.00001869613177</v>
+        <v>1.869613177030161E-05</v>
       </c>
       <c r="V302">
-        <v>0.999981319933499</v>
+        <v>-1.868006650096454E-05</v>
       </c>
       <c r="W302">
-        <v>1.000280426247897</v>
+        <v>0.0002804262478968145</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22961,7 +22961,7 @@
         <v>1.120340756734078</v>
       </c>
       <c r="K303">
-        <v>52.83776926779063</v>
+        <v>0.02837769267790624</v>
       </c>
       <c r="L303">
         <v>0.004044794243721238</v>
@@ -22991,13 +22991,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U303">
-        <v>1.000028043673347</v>
+        <v>2.804367334729996E-05</v>
       </c>
       <c r="V303">
-        <v>1.000018680415452</v>
+        <v>1.868041545249888E-05</v>
       </c>
       <c r="W303">
-        <v>1.000280347631063</v>
+        <v>0.0002803476310626607</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23032,7 +23032,7 @@
         <v>1.489368005921629</v>
       </c>
       <c r="K304">
-        <v>59.82916155340504</v>
+        <v>0.09829161553405041</v>
       </c>
       <c r="L304">
         <v>0.00395838516452827</v>
@@ -23062,13 +23062,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U304">
-        <v>1.000065433402817</v>
+        <v>6.543340281739418E-05</v>
       </c>
       <c r="V304">
-        <v>1.000074720266004</v>
+        <v>7.472026600408022E-05</v>
       </c>
       <c r="W304">
-        <v>1.001121076233184</v>
+        <v>0.001121076233183693</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23103,7 +23103,7 @@
         <v>1.489368005921629</v>
       </c>
       <c r="K305">
-        <v>59.82916155340504</v>
+        <v>0.09829161553405041</v>
       </c>
       <c r="L305">
         <v>0.004192842408153544</v>
@@ -23133,13 +23133,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U305">
-        <v>1.000065429121567</v>
+        <v>6.542912156737302E-05</v>
       </c>
       <c r="V305">
-        <v>1.000056036012478</v>
+        <v>5.603601247750056E-05</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23174,7 +23174,7 @@
         <v>1.236557293241462</v>
       </c>
       <c r="K306">
-        <v>55.2884246237801</v>
+        <v>0.05288424623780097</v>
       </c>
       <c r="L306">
         <v>0.004387253792686515</v>
@@ -23204,13 +23204,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U306">
-        <v>1.000046732029198</v>
+        <v>4.673202919813768E-05</v>
       </c>
       <c r="V306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W306">
-        <v>0.9994400895856663</v>
+        <v>-0.0005599104143336753</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23245,7 +23245,7 @@
         <v>0.9751904246007543</v>
       </c>
       <c r="K307">
-        <v>49.37197003665456</v>
+        <v>-0.006280299633454389</v>
       </c>
       <c r="L307">
         <v>0.004222774614406817</v>
@@ -23275,13 +23275,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U307">
-        <v>1.000028037907251</v>
+        <v>2.803790725081079E-05</v>
       </c>
       <c r="V307">
-        <v>0.9998319013821441</v>
+        <v>-0.0001680986178559385</v>
       </c>
       <c r="W307">
-        <v>0.9991596638655462</v>
+        <v>-0.0008403361344537785</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23316,7 +23316,7 @@
         <v>1.049354131942518</v>
       </c>
       <c r="K308">
-        <v>51.20413868870327</v>
+        <v>0.01204138688703271</v>
       </c>
       <c r="L308">
         <v>0.003938087047200932</v>
@@ -23346,13 +23346,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U308">
-        <v>1.000028037121148</v>
+        <v>2.803712114829437E-05</v>
       </c>
       <c r="V308">
-        <v>0.9999065961779157</v>
+        <v>-9.340382208433695E-05</v>
       </c>
       <c r="W308">
-        <v>1.000280347631063</v>
+        <v>0.0002803476310626607</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23387,7 +23387,7 @@
         <v>1.361622373381434</v>
       </c>
       <c r="K309">
-        <v>57.65622771568796</v>
+        <v>0.07656227715687958</v>
       </c>
       <c r="L309">
         <v>0.003992687401530646</v>
@@ -23417,13 +23417,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U309">
-        <v>1.000093454450301</v>
+        <v>9.345445030106703E-05</v>
       </c>
       <c r="V309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W309">
-        <v>1.001121076233184</v>
+        <v>0.001121076233183693</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23458,7 +23458,7 @@
         <v>1.361622373381434</v>
       </c>
       <c r="K310">
-        <v>57.65622771568795</v>
+        <v>0.07656227715687958</v>
       </c>
       <c r="L310">
         <v>0.00423477449575024</v>
@@ -23488,13 +23488,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U310">
-        <v>1.000112134860859</v>
+        <v>0.0001121348608592587</v>
       </c>
       <c r="V310">
-        <v>1.000037365018869</v>
+        <v>3.736501886941745E-05</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23529,7 +23529,7 @@
         <v>1.160801610231112</v>
       </c>
       <c r="K311">
-        <v>53.72087861906751</v>
+        <v>0.03720878619067503</v>
       </c>
       <c r="L311">
         <v>0.004355426603554982</v>
@@ -23559,13 +23559,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U311">
-        <v>1.000112122288042</v>
+        <v>0.000112122288042027</v>
       </c>
       <c r="V311">
-        <v>1.000056045434165</v>
+        <v>5.604543416515284E-05</v>
       </c>
       <c r="W311">
-        <v>0.9994400895856663</v>
+        <v>-0.0005599104143336753</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23600,7 +23600,7 @@
         <v>1.077185701628414</v>
       </c>
       <c r="K312">
-        <v>51.85793936401315</v>
+        <v>0.0185793936401315</v>
       </c>
       <c r="L312">
         <v>0.004276895899919194</v>
@@ -23630,13 +23630,13 @@
         <v>0.0625</v>
       </c>
       <c r="U312">
-        <v>1.000084082288533</v>
+        <v>8.408228853307165E-05</v>
       </c>
       <c r="V312">
-        <v>1.000037361528834</v>
+        <v>3.73615288338236E-05</v>
       </c>
       <c r="W312">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23671,7 +23671,7 @@
         <v>1.153009808970971</v>
       </c>
       <c r="K313">
-        <v>53.55339321570722</v>
+        <v>0.03553393215707223</v>
       </c>
       <c r="L313">
         <v>0.004169196341613781</v>
@@ -23701,13 +23701,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U313">
-        <v>1.000093416910329</v>
+        <v>9.34169103290472E-05</v>
       </c>
       <c r="V313">
-        <v>1.000056040199503</v>
+        <v>5.604019950311567E-05</v>
       </c>
       <c r="W313">
-        <v>1.00028019052956</v>
+        <v>0.000280190529560187</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23742,7 +23742,7 @@
         <v>1.232824658805241</v>
       </c>
       <c r="K314">
-        <v>55.21367985361248</v>
+        <v>0.05213679853612474</v>
       </c>
       <c r="L314">
         <v>0.004137557224178731</v>
@@ -23772,13 +23772,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U314">
-        <v>1.000102749002868</v>
+        <v>0.0001027490028677747</v>
       </c>
       <c r="V314">
-        <v>1.0000747160789</v>
+        <v>7.471607890008336E-05</v>
       </c>
       <c r="W314">
-        <v>1.000280112044818</v>
+        <v>0.0002801120448179262</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23813,7 +23813,7 @@
         <v>1.316840290209688</v>
       </c>
       <c r="K315">
-        <v>56.83776718551911</v>
+        <v>0.06837767185519117</v>
       </c>
       <c r="L315">
         <v>0.004240979762666235</v>
@@ -23843,13 +23843,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U315">
-        <v>1.000084058729032</v>
+        <v>8.405872903205491E-05</v>
       </c>
       <c r="V315">
-        <v>1.000112065745237</v>
+        <v>0.0001120657452373663</v>
       </c>
       <c r="W315">
-        <v>1.000280033604032</v>
+        <v>0.0002800336040322815</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23884,7 +23884,7 @@
         <v>0.9727351903813277</v>
       </c>
       <c r="K316">
-        <v>49.30895921176825</v>
+        <v>-0.006910407882317449</v>
       </c>
       <c r="L316">
         <v>0.003995985179574499</v>
@@ -23914,13 +23914,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U316">
-        <v>1.000037356295002</v>
+        <v>3.73562950024553E-05</v>
       </c>
       <c r="V316">
-        <v>1.000037351062638</v>
+        <v>3.735106263769161E-05</v>
       </c>
       <c r="W316">
-        <v>0.9988801791713326</v>
+        <v>-0.001119820828667351</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23955,7 +23955,7 @@
         <v>1.179033496209967</v>
       </c>
       <c r="K317">
-        <v>54.10809417389322</v>
+        <v>0.04108094173893218</v>
       </c>
       <c r="L317">
         <v>0.003847128299593469</v>
@@ -23985,13 +23985,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U317">
-        <v>1.000028016174672</v>
+        <v>2.801617467174111E-05</v>
       </c>
       <c r="V317">
-        <v>1.000074699335176</v>
+        <v>7.469933517589844E-05</v>
       </c>
       <c r="W317">
-        <v>1.000840807174888</v>
+        <v>0.0008408071748879919</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24026,7 +24026,7 @@
         <v>1.251418866676129</v>
       </c>
       <c r="K318">
-        <v>55.58356488873413</v>
+        <v>0.05583564888734127</v>
       </c>
       <c r="L318">
         <v>0.003854014860979239</v>
@@ -24056,13 +24056,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U318">
-        <v>1.000046692316312</v>
+        <v>4.669231631249104E-05</v>
       </c>
       <c r="V318">
-        <v>1.000074693755602</v>
+        <v>7.469375560198444E-05</v>
       </c>
       <c r="W318">
-        <v>1.000280033604032</v>
+        <v>0.0002800336040322815</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24097,7 +24097,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K319">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L319">
         <v>0.003736692872699169</v>
@@ -24127,13 +24127,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U319">
-        <v>1.000018676054497</v>
+        <v>1.867605449668019E-05</v>
       </c>
       <c r="V319">
-        <v>0.9999626559115692</v>
+        <v>-3.734408843081294E-05</v>
       </c>
       <c r="W319">
-        <v>0.9994400895856663</v>
+        <v>-0.0005599104143336753</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24168,7 +24168,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K320">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L320">
         <v>0.003537999056122359</v>
@@ -24198,13 +24198,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U320">
-        <v>1.000009337852854</v>
+        <v>9.3378528540633E-06</v>
       </c>
       <c r="V320">
-        <v>0.9999626545169362</v>
+        <v>-3.734548306377761E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24239,7 +24239,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K321">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L321">
         <v>0.003289792744681635</v>
@@ -24269,13 +24269,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24310,7 +24310,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K322">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L322">
         <v>0.003015432747545009</v>
@@ -24340,13 +24340,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U322">
-        <v>0.9999439734060432</v>
+        <v>-5.602659395675946E-05</v>
       </c>
       <c r="V322">
-        <v>1.000056020316702</v>
+        <v>5.602031670171037E-05</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24381,7 +24381,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K323">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L323">
         <v>0.002731734837644872</v>
@@ -24411,13 +24411,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U323">
-        <v>0.9999719851334443</v>
+        <v>-2.801486655568119E-05</v>
       </c>
       <c r="V323">
-        <v>1.000037344785734</v>
+        <v>3.734478573425015E-05</v>
       </c>
       <c r="W323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24452,7 +24452,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K324">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L324">
         <v>0.002450513486467001</v>
@@ -24482,13 +24482,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U324">
-        <v>0.9999813228990595</v>
+        <v>-1.867710094050068E-05</v>
       </c>
       <c r="V324">
-        <v>0.9999626566088466</v>
+        <v>-3.734339115335494E-05</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24523,7 +24523,7 @@
         <v>1.085933226832347</v>
       </c>
       <c r="K325">
-        <v>52.05982688532278</v>
+        <v>0.0205982688532278</v>
       </c>
       <c r="L325">
         <v>0.002179791593945797</v>
@@ -24553,13 +24553,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V325">
-        <v>0.9999626552142654</v>
+        <v>-3.734478573458322E-05</v>
       </c>
       <c r="W325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24594,7 +24594,7 @@
         <v>0.9130385933162017</v>
       </c>
       <c r="K326">
-        <v>47.7271392488467</v>
+        <v>-0.02272860751153294</v>
       </c>
       <c r="L326">
         <v>0.00172072290826361</v>
@@ -24624,13 +24624,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U326">
-        <v>1.000009338724891</v>
+        <v>9.338724890506356E-06</v>
       </c>
       <c r="V326">
-        <v>0.9999626538195806</v>
+        <v>-3.73461804193953E-05</v>
       </c>
       <c r="W326">
-        <v>0.9994397759103641</v>
+        <v>-0.0005602240896358524</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24665,7 +24665,7 @@
         <v>1.080631173202999</v>
       </c>
       <c r="K327">
-        <v>51.93766137510264</v>
+        <v>0.01937661375102639</v>
       </c>
       <c r="L327">
         <v>0.001374568960848131</v>
@@ -24695,13 +24695,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U327">
-        <v>1.000028015913039</v>
+        <v>2.801591303858153E-05</v>
       </c>
       <c r="V327">
-        <v>1.000018673787604</v>
+        <v>1.867378760445071E-05</v>
       </c>
       <c r="W327">
-        <v>1.000560538116592</v>
+        <v>0.0005605381165918466</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24736,7 +24736,7 @@
         <v>0.9930385942853717</v>
       </c>
       <c r="K328">
-        <v>49.82535697666395</v>
+        <v>-0.001746430233360463</v>
       </c>
       <c r="L328">
         <v>0.001011863023900114</v>
@@ -24766,13 +24766,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U328">
-        <v>1.000018676752113</v>
+        <v>1.867675211286723E-05</v>
       </c>
       <c r="V328">
-        <v>0.9999813265610996</v>
+        <v>-1.867343890038509E-05</v>
       </c>
       <c r="W328">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24807,7 +24807,7 @@
         <v>1.16368463326062</v>
       </c>
       <c r="K329">
-        <v>53.78254369293068</v>
+        <v>0.03782543692930684</v>
       </c>
       <c r="L329">
         <v>0.00086257385767217</v>
@@ -24837,13 +24837,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U329">
-        <v>1.000037352806597</v>
+        <v>3.735280659666884E-05</v>
       </c>
       <c r="V329">
-        <v>0.9999999999999997</v>
+        <v>-3.33066907387547E-16</v>
       </c>
       <c r="W329">
-        <v>1.00056038105912</v>
+        <v>0.0005603810591203739</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24878,7 +24878,7 @@
         <v>1.253498337984383</v>
       </c>
       <c r="K330">
-        <v>55.62455125241232</v>
+        <v>0.05624551252412324</v>
       </c>
       <c r="L330">
         <v>0.000950951574000476</v>
@@ -24908,13 +24908,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U330">
-        <v>1.000056027117125</v>
+        <v>5.602711712460184E-05</v>
       </c>
       <c r="V330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W330">
-        <v>1.000280033604032</v>
+        <v>0.0002800336040322815</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24949,7 +24949,7 @@
         <v>1.253498337984384</v>
       </c>
       <c r="K331">
-        <v>55.62455125241233</v>
+        <v>0.05624551252412335</v>
       </c>
       <c r="L331">
         <v>0.001174212977978888</v>
@@ -24979,13 +24979,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U331">
-        <v>1.000056023978263</v>
+        <v>5.602397826254268E-05</v>
       </c>
       <c r="V331">
-        <v>1.000074695150418</v>
+        <v>7.469515041758079E-05</v>
       </c>
       <c r="W331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25020,7 +25020,7 @@
         <v>1.253498337984384</v>
       </c>
       <c r="K332">
-        <v>55.62455125241235</v>
+        <v>0.05624551252412346</v>
       </c>
       <c r="L332">
         <v>0.001460680599303111</v>
@@ -25050,13 +25050,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U332">
-        <v>1.000046684033127</v>
+        <v>4.668403312702019E-05</v>
       </c>
       <c r="V332">
-        <v>1.000018672392867</v>
+        <v>1.86723928672361E-05</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25091,7 +25091,7 @@
         <v>1.253498337984384</v>
       </c>
       <c r="K333">
-        <v>55.62455125241235</v>
+        <v>0.05624551252412346</v>
       </c>
       <c r="L333">
         <v>0.001761858365838679</v>
@@ -25121,13 +25121,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U333">
-        <v>1.000037345483064</v>
+        <v>3.734548306377761E-05</v>
       </c>
       <c r="V333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25162,7 +25162,7 @@
         <v>1.253498337984384</v>
       </c>
       <c r="K334">
-        <v>55.62455125241235</v>
+        <v>0.05624551252412346</v>
       </c>
       <c r="L334">
         <v>0.00204633141807951</v>
@@ -25192,13 +25192,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U334">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V334">
-        <v>1.000037344088431</v>
+        <v>3.734408843070192E-05</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25233,7 +25233,7 @@
         <v>1.253498337984384</v>
       </c>
       <c r="K335">
-        <v>55.62455125241233</v>
+        <v>0.05624551252412335</v>
       </c>
       <c r="L335">
         <v>0.002295096594099845</v>
@@ -25263,13 +25263,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V335">
-        <v>1.000037342693902</v>
+        <v>3.734269390198719E-05</v>
       </c>
       <c r="W335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25304,7 +25304,7 @@
         <v>1.253498337984384</v>
       </c>
       <c r="K336">
-        <v>55.62455125241233</v>
+        <v>0.05624551252412335</v>
       </c>
       <c r="L336">
         <v>0.002498011639722492</v>
@@ -25334,13 +25334,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U336">
-        <v>1.000018672044215</v>
+        <v>1.867204421546198E-05</v>
       </c>
       <c r="V336">
-        <v>1.000037341299477</v>
+        <v>3.734129947741138E-05</v>
       </c>
       <c r="W336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25375,7 +25375,7 @@
         <v>0.9970385306847828</v>
       </c>
       <c r="K337">
-        <v>49.92585347579143</v>
+        <v>-0.0007414652420857371</v>
       </c>
       <c r="L337">
         <v>0.002447128235930593</v>
@@ -25405,13 +25405,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U337">
-        <v>1.000028007543365</v>
+        <v>2.800754336473865E-05</v>
       </c>
       <c r="V337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W337">
-        <v>0.9994400895856663</v>
+        <v>-0.0005599104143336753</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25446,7 +25446,7 @@
         <v>0.9970385306847828</v>
       </c>
       <c r="K338">
-        <v>49.92585347579143</v>
+        <v>-0.0007414652420857371</v>
       </c>
       <c r="L338">
         <v>0.002236831405945847</v>
@@ -25476,13 +25476,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U338">
-        <v>1.000018671172643</v>
+        <v>1.867117264309215E-05</v>
       </c>
       <c r="V338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25517,7 +25517,7 @@
         <v>1.450435209175221</v>
       </c>
       <c r="K339">
-        <v>59.19092264689647</v>
+        <v>0.09190922646896471</v>
       </c>
       <c r="L339">
         <v>0.002343180602087087</v>
@@ -25547,13 +25547,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U339">
-        <v>1.000018670824037</v>
+        <v>1.867082403661513E-05</v>
       </c>
       <c r="V339">
-        <v>1.000074679810313</v>
+        <v>7.467981031328286E-05</v>
       </c>
       <c r="W339">
-        <v>1.001120448179272</v>
+        <v>0.001120448179271705</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25588,7 +25588,7 @@
         <v>1.170999739491693</v>
       </c>
       <c r="K340">
-        <v>53.9382717644114</v>
+        <v>0.03938271764411405</v>
       </c>
       <c r="L340">
         <v>0.002422056008513407</v>
@@ -25618,13 +25618,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U340">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V340">
-        <v>1.000037337116828</v>
+        <v>3.733711682785135E-05</v>
       </c>
       <c r="W340">
-        <v>0.9994404029099049</v>
+        <v>-0.0005595970900951208</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25659,7 +25659,7 @@
         <v>1.373795836694913</v>
       </c>
       <c r="K341">
-        <v>57.87337796529623</v>
+        <v>0.07873377965296224</v>
       </c>
       <c r="L341">
         <v>0.002674405976991947</v>
@@ -25689,13 +25689,13 @@
         <v>0.03125</v>
       </c>
       <c r="U341">
-        <v>1.000037340950887</v>
+        <v>3.734095088736566E-05</v>
       </c>
       <c r="V341">
-        <v>1.000112007168459</v>
+        <v>0.0001120071684586055</v>
       </c>
       <c r="W341">
-        <v>1.000559910414334</v>
+        <v>0.0005599104143336753</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25730,7 +25730,7 @@
         <v>2.014204564705142</v>
       </c>
       <c r="K342">
-        <v>66.82375139001812</v>
+        <v>0.1682375139001812</v>
       </c>
       <c r="L342">
         <v>0.003617899730029056</v>
@@ -25760,13 +25760,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U342">
-        <v>1.00010268378063</v>
+        <v>0.0001026837806301639</v>
       </c>
       <c r="V342">
-        <v>1.000186657707097</v>
+        <v>0.0001866577070968045</v>
       </c>
       <c r="W342">
-        <v>1.001678791270285</v>
+        <v>0.001678791270285362</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25801,7 +25801,7 @@
         <v>1.64464492749599</v>
       </c>
       <c r="K343">
-        <v>62.18774060732522</v>
+        <v>0.1218774060732521</v>
       </c>
       <c r="L343">
         <v>0.004702755572187276</v>
@@ -25831,13 +25831,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U343">
-        <v>1.000074671445639</v>
+        <v>7.467144563921835E-05</v>
       </c>
       <c r="V343">
-        <v>1.000167960585249</v>
+        <v>0.0001679605852493715</v>
       </c>
       <c r="W343">
-        <v>0.999441340782123</v>
+        <v>-0.0005586592178770111</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25872,7 +25872,7 @@
         <v>1.378425035303141</v>
       </c>
       <c r="K344">
-        <v>57.95537024892838</v>
+        <v>0.07955370248928384</v>
       </c>
       <c r="L344">
         <v>0.005582958331692737</v>
@@ -25902,13 +25902,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U344">
-        <v>1.000046666168894</v>
+        <v>4.666616889403841E-05</v>
       </c>
       <c r="V344">
-        <v>1.000093295766238</v>
+        <v>9.329576623828828E-05</v>
       </c>
       <c r="W344">
-        <v>0.9994410285075461</v>
+        <v>-0.0005589714924538747</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25943,7 +25943,7 @@
         <v>1.177748218292622</v>
       </c>
       <c r="K345">
-        <v>54.08100938390339</v>
+        <v>0.04081009383903389</v>
       </c>
       <c r="L345">
         <v>0.006058766373996454</v>
@@ -25973,13 +25973,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U345">
-        <v>1.000018665596506</v>
+        <v>1.866559650598454E-05</v>
       </c>
       <c r="V345">
-        <v>1.00003731482518</v>
+        <v>3.731482517999041E-05</v>
       </c>
       <c r="W345">
-        <v>0.9994407158836688</v>
+        <v>-0.0005592841163312157</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26014,7 +26014,7 @@
         <v>1.407617905803143</v>
       </c>
       <c r="K346">
-        <v>58.46517017548032</v>
+        <v>0.08465170175480319</v>
       </c>
       <c r="L346">
         <v>0.0065430816789619</v>
@@ -26044,13 +26044,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U346">
-        <v>1.000083993616485</v>
+        <v>8.399361648514514E-05</v>
       </c>
       <c r="V346">
-        <v>1.000093283582089</v>
+        <v>9.328358208948728E-05</v>
       </c>
       <c r="W346">
-        <v>1.000839395635143</v>
+        <v>0.0008393956351426812</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26085,7 +26085,7 @@
         <v>0.9485703770550262</v>
       </c>
       <c r="K347">
-        <v>48.68032421228988</v>
+        <v>-0.01319675787710117</v>
       </c>
       <c r="L347">
         <v>0.006366074190625809</v>
@@ -26115,13 +26115,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V347">
-        <v>0.9999813450237851</v>
+        <v>-1.865497621489354E-05</v>
       </c>
       <c r="W347">
-        <v>0.9983226167179201</v>
+        <v>-0.001677383282079892</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26156,7 +26156,7 @@
         <v>0.9485703770550262</v>
       </c>
       <c r="K348">
-        <v>48.68032421228988</v>
+        <v>-0.01319675787710117</v>
       </c>
       <c r="L348">
         <v>0.005776607850748356</v>
@@ -26186,13 +26186,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U348">
-        <v>0.9999906681597611</v>
+        <v>-9.331840238879785E-06</v>
       </c>
       <c r="V348">
-        <v>0.9999813446757706</v>
+        <v>-1.865532422939964E-05</v>
       </c>
       <c r="W348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
